--- a/lin_R1_by_R2 (1 by 2.5)100.xlsx
+++ b/lin_R1_by_R2 (1 by 2.5)100.xlsx
@@ -224,6 +224,86 @@
         <v>-0.07932013351456937</v>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>255.73511462376163</v>
+      </c>
+      <c r="B3" t="n">
+        <v>321.95143448794767</v>
+      </c>
+      <c r="C3" t="n">
+        <v>405.3128422404624</v>
+      </c>
+      <c r="D3" t="n">
+        <v>510.2586368230384</v>
+      </c>
+      <c r="E3" t="n">
+        <v>642.377564483974</v>
+      </c>
+      <c r="F3" t="n">
+        <v>808.7054398953212</v>
+      </c>
+      <c r="G3" t="n">
+        <v>1018.0998289404004</v>
+      </c>
+      <c r="H3" t="n">
+        <v>1281.7117463963648</v>
+      </c>
+      <c r="I3" t="n">
+        <v>1613.5794881334648</v>
+      </c>
+      <c r="J3" t="n">
+        <v>2031.3762215610436</v>
+      </c>
+      <c r="K3" t="n">
+        <v>2557.3511462376164</v>
+      </c>
+      <c r="L3" t="n">
+        <v>3219.5143448794765</v>
+      </c>
+      <c r="M3" t="n">
+        <v>4053.1284224046235</v>
+      </c>
+      <c r="N3" t="n">
+        <v>5102.586368230384</v>
+      </c>
+      <c r="O3" t="n">
+        <v>6423.77564483974</v>
+      </c>
+      <c r="P3" t="n">
+        <v>8087.054398953212</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>10180.998289404004</v>
+      </c>
+      <c r="R3" t="n">
+        <v>12817.117463963647</v>
+      </c>
+      <c r="S3" t="n">
+        <v>16135.794881334647</v>
+      </c>
+      <c r="T3" t="n">
+        <v>20313.762215610437</v>
+      </c>
+      <c r="U3" t="n">
+        <v>25573.511462376162</v>
+      </c>
+      <c r="V3" t="n">
+        <v>32195.143448794766</v>
+      </c>
+      <c r="W3" t="n">
+        <v>40531.284224046234</v>
+      </c>
+      <c r="X3" t="n">
+        <v>51025.86368230384</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>64237.756448397406</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>80870.54398953212</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
@@ -397,6 +477,86 @@
         <v>-0.07943186118075096</v>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>255.73511462376163</v>
+      </c>
+      <c r="B3" t="n">
+        <v>321.95143448794767</v>
+      </c>
+      <c r="C3" t="n">
+        <v>405.3128422404624</v>
+      </c>
+      <c r="D3" t="n">
+        <v>510.2586368230384</v>
+      </c>
+      <c r="E3" t="n">
+        <v>642.377564483974</v>
+      </c>
+      <c r="F3" t="n">
+        <v>808.7054398953212</v>
+      </c>
+      <c r="G3" t="n">
+        <v>1018.0998289404004</v>
+      </c>
+      <c r="H3" t="n">
+        <v>1281.7117463963648</v>
+      </c>
+      <c r="I3" t="n">
+        <v>1613.5794881334648</v>
+      </c>
+      <c r="J3" t="n">
+        <v>2031.3762215610436</v>
+      </c>
+      <c r="K3" t="n">
+        <v>2557.3511462376164</v>
+      </c>
+      <c r="L3" t="n">
+        <v>3219.5143448794765</v>
+      </c>
+      <c r="M3" t="n">
+        <v>4053.1284224046235</v>
+      </c>
+      <c r="N3" t="n">
+        <v>5102.586368230384</v>
+      </c>
+      <c r="O3" t="n">
+        <v>6423.77564483974</v>
+      </c>
+      <c r="P3" t="n">
+        <v>8087.054398953212</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>10180.998289404004</v>
+      </c>
+      <c r="R3" t="n">
+        <v>12817.117463963647</v>
+      </c>
+      <c r="S3" t="n">
+        <v>16135.794881334647</v>
+      </c>
+      <c r="T3" t="n">
+        <v>20313.762215610437</v>
+      </c>
+      <c r="U3" t="n">
+        <v>25573.511462376162</v>
+      </c>
+      <c r="V3" t="n">
+        <v>32195.143448794766</v>
+      </c>
+      <c r="W3" t="n">
+        <v>40531.284224046234</v>
+      </c>
+      <c r="X3" t="n">
+        <v>51025.86368230384</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>64237.756448397406</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>80870.54398953212</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
@@ -570,6 +730,86 @@
         <v>-0.07944799077199795</v>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>255.73511462376163</v>
+      </c>
+      <c r="B3" t="n">
+        <v>321.95143448794767</v>
+      </c>
+      <c r="C3" t="n">
+        <v>405.3128422404624</v>
+      </c>
+      <c r="D3" t="n">
+        <v>510.2586368230384</v>
+      </c>
+      <c r="E3" t="n">
+        <v>642.377564483974</v>
+      </c>
+      <c r="F3" t="n">
+        <v>808.7054398953212</v>
+      </c>
+      <c r="G3" t="n">
+        <v>1018.0998289404004</v>
+      </c>
+      <c r="H3" t="n">
+        <v>1281.7117463963648</v>
+      </c>
+      <c r="I3" t="n">
+        <v>1613.5794881334648</v>
+      </c>
+      <c r="J3" t="n">
+        <v>2031.3762215610436</v>
+      </c>
+      <c r="K3" t="n">
+        <v>2557.3511462376164</v>
+      </c>
+      <c r="L3" t="n">
+        <v>3219.5143448794765</v>
+      </c>
+      <c r="M3" t="n">
+        <v>4053.1284224046235</v>
+      </c>
+      <c r="N3" t="n">
+        <v>5102.586368230384</v>
+      </c>
+      <c r="O3" t="n">
+        <v>6423.77564483974</v>
+      </c>
+      <c r="P3" t="n">
+        <v>8087.054398953212</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>10180.998289404004</v>
+      </c>
+      <c r="R3" t="n">
+        <v>12817.117463963647</v>
+      </c>
+      <c r="S3" t="n">
+        <v>16135.794881334647</v>
+      </c>
+      <c r="T3" t="n">
+        <v>20313.762215610437</v>
+      </c>
+      <c r="U3" t="n">
+        <v>25573.511462376162</v>
+      </c>
+      <c r="V3" t="n">
+        <v>32195.143448794766</v>
+      </c>
+      <c r="W3" t="n">
+        <v>40531.284224046234</v>
+      </c>
+      <c r="X3" t="n">
+        <v>51025.86368230384</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>64237.756448397406</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>80870.54398953212</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
@@ -743,6 +983,86 @@
         <v>-0.07931874795188261</v>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>255.73511462376163</v>
+      </c>
+      <c r="B3" t="n">
+        <v>321.95143448794767</v>
+      </c>
+      <c r="C3" t="n">
+        <v>405.3128422404624</v>
+      </c>
+      <c r="D3" t="n">
+        <v>510.2586368230384</v>
+      </c>
+      <c r="E3" t="n">
+        <v>642.377564483974</v>
+      </c>
+      <c r="F3" t="n">
+        <v>808.7054398953212</v>
+      </c>
+      <c r="G3" t="n">
+        <v>1018.0998289404004</v>
+      </c>
+      <c r="H3" t="n">
+        <v>1281.7117463963648</v>
+      </c>
+      <c r="I3" t="n">
+        <v>1613.5794881334648</v>
+      </c>
+      <c r="J3" t="n">
+        <v>2031.3762215610436</v>
+      </c>
+      <c r="K3" t="n">
+        <v>2557.3511462376164</v>
+      </c>
+      <c r="L3" t="n">
+        <v>3219.5143448794765</v>
+      </c>
+      <c r="M3" t="n">
+        <v>4053.1284224046235</v>
+      </c>
+      <c r="N3" t="n">
+        <v>5102.586368230384</v>
+      </c>
+      <c r="O3" t="n">
+        <v>6423.77564483974</v>
+      </c>
+      <c r="P3" t="n">
+        <v>8087.054398953212</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>10180.998289404004</v>
+      </c>
+      <c r="R3" t="n">
+        <v>12817.117463963647</v>
+      </c>
+      <c r="S3" t="n">
+        <v>16135.794881334647</v>
+      </c>
+      <c r="T3" t="n">
+        <v>20313.762215610437</v>
+      </c>
+      <c r="U3" t="n">
+        <v>25573.511462376162</v>
+      </c>
+      <c r="V3" t="n">
+        <v>32195.143448794766</v>
+      </c>
+      <c r="W3" t="n">
+        <v>40531.284224046234</v>
+      </c>
+      <c r="X3" t="n">
+        <v>51025.86368230384</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>64237.756448397406</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>80870.54398953212</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/lin_R1_by_R2 (1 by 2.5)100.xlsx
+++ b/lin_R1_by_R2 (1 by 2.5)100.xlsx
@@ -66,73 +66,73 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="n">
-        <v>0.8965323573502957</v>
+        <v>0.8413020347806922</v>
       </c>
       <c r="B1" t="n">
-        <v>0.8853823178990345</v>
+        <v>0.8055183692163721</v>
       </c>
       <c r="C1" t="n">
-        <v>0.8685791931963774</v>
+        <v>0.7579303577274205</v>
       </c>
       <c r="D1" t="n">
-        <v>0.8439248872017301</v>
+        <v>0.6990394871695588</v>
       </c>
       <c r="E1" t="n">
-        <v>0.8091281097042295</v>
+        <v>0.6321721336164984</v>
       </c>
       <c r="F1" t="n">
-        <v>0.7625954939360146</v>
+        <v>0.5629470072987623</v>
       </c>
       <c r="G1" t="n">
-        <v>0.7046080435264145</v>
+        <v>0.49718149354746904</v>
       </c>
       <c r="H1" t="n">
-        <v>0.638239173747241</v>
+        <v>0.4386254708616616</v>
       </c>
       <c r="I1" t="n">
-        <v>0.5689728562569655</v>
+        <v>0.38817658467213123</v>
       </c>
       <c r="J1" t="n">
-        <v>0.5027113440201475</v>
+        <v>0.3447645376158372</v>
       </c>
       <c r="K1" t="n">
-        <v>0.4434461140699597</v>
+        <v>0.30680432365054333</v>
       </c>
       <c r="L1" t="n">
-        <v>0.39230876900668227</v>
+        <v>0.273135474896869</v>
       </c>
       <c r="M1" t="n">
-        <v>0.3483428530338208</v>
+        <v>0.24314270683184994</v>
       </c>
       <c r="N1" t="n">
-        <v>0.3099587647818512</v>
+        <v>0.21645625701588683</v>
       </c>
       <c r="O1" t="n">
-        <v>0.2759433229445723</v>
+        <v>0.19273387435034198</v>
       </c>
       <c r="P1" t="n">
-        <v>0.24564339959848247</v>
+        <v>0.17163980431151263</v>
       </c>
       <c r="Q1" t="n">
-        <v>0.21867970347662255</v>
+        <v>0.15287418837324782</v>
       </c>
       <c r="R1" t="n">
-        <v>0.19471042516733297</v>
+        <v>0.13617515011888948</v>
       </c>
       <c r="S1" t="n">
-        <v>0.1733978013168378</v>
+        <v>0.12131154058447093</v>
       </c>
       <c r="T1" t="n">
-        <v>0.15443836858600654</v>
+        <v>0.10807880542774007</v>
       </c>
       <c r="U1" t="n">
-        <v>0.13756723414510422</v>
+        <v>0.09629585656895887</v>
       </c>
       <c r="V1" t="n">
-        <v>0.12255074701310861</v>
+        <v>0.08580223050516304</v>
       </c>
       <c r="W1" t="n">
-        <v>0.10918214170566932</v>
+        <v>0.07645562234803552</v>
       </c>
       <c r="X1" t="n">
         <v>0.0972783856233657</v>
@@ -146,73 +146,73 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>-1.9956929537000723</v>
+        <v>-1.133171057154739</v>
       </c>
       <c r="B2" t="n">
-        <v>-1.6349466775401287</v>
+        <v>-0.9797853248728094</v>
       </c>
       <c r="C2" t="n">
-        <v>-1.358370684087309</v>
+        <v>-0.8636004410783181</v>
       </c>
       <c r="D2" t="n">
-        <v>-1.1488940832876524</v>
+        <v>-0.7718152382751011</v>
       </c>
       <c r="E2" t="n">
-        <v>-0.9915908015736813</v>
+        <v>-0.6935747140165974</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.8726642485495707</v>
+        <v>-0.6216490846506015</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.7792080369811932</v>
+        <v>-0.5532683485900252</v>
       </c>
       <c r="H2" t="n">
-        <v>-0.7001295031947439</v>
+        <v>-0.4890459470906483</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.6278226395245963</v>
+        <v>-0.43070282875076593</v>
       </c>
       <c r="J2" t="n">
-        <v>-0.559140002552586</v>
+        <v>-0.37924274780841405</v>
       </c>
       <c r="K2" t="n">
-        <v>-0.4944828275707943</v>
+        <v>-0.33445422830312915</v>
       </c>
       <c r="L2" t="n">
-        <v>-0.435564393017925</v>
+        <v>-0.2954185897808407</v>
       </c>
       <c r="M2" t="n">
-        <v>-0.3834914147641687</v>
+        <v>-0.2611868094156081</v>
       </c>
       <c r="N2" t="n">
-        <v>-0.33814799281589886</v>
+        <v>-0.2310620617805532</v>
       </c>
       <c r="O2" t="n">
-        <v>-0.2986473527735987</v>
+        <v>-0.20453062866921132</v>
       </c>
       <c r="P2" t="n">
-        <v>-0.26402471919541226</v>
+        <v>-0.1811525418312769</v>
       </c>
       <c r="Q2" t="n">
-        <v>-0.2335609773663287</v>
+        <v>-0.16053572609156255</v>
       </c>
       <c r="R2" t="n">
-        <v>-0.2067318124351836</v>
+        <v>-0.1423383811201906</v>
       </c>
       <c r="S2" t="n">
-        <v>-0.18309280610682027</v>
+        <v>-0.12626388830878604</v>
       </c>
       <c r="T2" t="n">
-        <v>-0.16224753003110348</v>
+        <v>-0.11205400774313672</v>
       </c>
       <c r="U2" t="n">
-        <v>-0.1438498667607279</v>
+        <v>-0.09948361888841176</v>
       </c>
       <c r="V2" t="n">
-        <v>-0.12759952157232946</v>
+        <v>-0.08835624575259013</v>
       </c>
       <c r="W2" t="n">
-        <v>-0.11323510551543442</v>
+        <v>-0.0785001969654275</v>
       </c>
       <c r="X2" t="n">
         <v>-0.10052877343339708</v>
@@ -226,73 +226,73 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>255.73511462376163</v>
+        <v>#NUM!</v>
       </c>
       <c r="B3" t="n">
-        <v>321.95143448794767</v>
+        <v>#NUM!</v>
       </c>
       <c r="C3" t="n">
-        <v>405.3128422404624</v>
+        <v>#NUM!</v>
       </c>
       <c r="D3" t="n">
-        <v>510.2586368230384</v>
+        <v>#NUM!</v>
       </c>
       <c r="E3" t="n">
-        <v>642.377564483974</v>
+        <v>#NUM!</v>
       </c>
       <c r="F3" t="n">
-        <v>808.7054398953212</v>
+        <v>#NUM!</v>
       </c>
       <c r="G3" t="n">
-        <v>1018.0998289404004</v>
+        <v>#NUM!</v>
       </c>
       <c r="H3" t="n">
-        <v>1281.7117463963648</v>
+        <v>#NUM!</v>
       </c>
       <c r="I3" t="n">
-        <v>1613.5794881334648</v>
+        <v>#NUM!</v>
       </c>
       <c r="J3" t="n">
-        <v>2031.3762215610436</v>
+        <v>#NUM!</v>
       </c>
       <c r="K3" t="n">
-        <v>2557.3511462376164</v>
+        <v>#NUM!</v>
       </c>
       <c r="L3" t="n">
-        <v>3219.5143448794765</v>
+        <v>#NUM!</v>
       </c>
       <c r="M3" t="n">
-        <v>4053.1284224046235</v>
+        <v>#NUM!</v>
       </c>
       <c r="N3" t="n">
-        <v>5102.586368230384</v>
+        <v>#NUM!</v>
       </c>
       <c r="O3" t="n">
-        <v>6423.77564483974</v>
+        <v>#NUM!</v>
       </c>
       <c r="P3" t="n">
-        <v>8087.054398953212</v>
+        <v>#NUM!</v>
       </c>
       <c r="Q3" t="n">
-        <v>10180.998289404004</v>
+        <v>#NUM!</v>
       </c>
       <c r="R3" t="n">
-        <v>12817.117463963647</v>
+        <v>#NUM!</v>
       </c>
       <c r="S3" t="n">
-        <v>16135.794881334647</v>
+        <v>#NUM!</v>
       </c>
       <c r="T3" t="n">
-        <v>20313.762215610437</v>
+        <v>#NUM!</v>
       </c>
       <c r="U3" t="n">
-        <v>25573.511462376162</v>
+        <v>#NUM!</v>
       </c>
       <c r="V3" t="n">
-        <v>32195.143448794766</v>
+        <v>#NUM!</v>
       </c>
       <c r="W3" t="n">
-        <v>40531.284224046234</v>
+        <v>#NUM!</v>
       </c>
       <c r="X3" t="n">
         <v>51025.86368230384</v>
@@ -319,73 +319,73 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="n">
-        <v>0.9221497247574872</v>
+        <v>0.9166863212955778</v>
       </c>
       <c r="B1" t="n">
-        <v>0.923470920557382</v>
+        <v>0.8976543536866922</v>
       </c>
       <c r="C1" t="n">
-        <v>0.923134276537082</v>
+        <v>0.8559965344788018</v>
       </c>
       <c r="D1" t="n">
-        <v>0.9176183393227731</v>
+        <v>0.7850091060849008</v>
       </c>
       <c r="E1" t="n">
-        <v>0.9000888400281687</v>
+        <v>0.6899562512444375</v>
       </c>
       <c r="F1" t="n">
-        <v>0.8608006443918486</v>
+        <v>0.5882565449944698</v>
       </c>
       <c r="G1" t="n">
-        <v>0.7924013646012492</v>
+        <v>0.497484737883706</v>
       </c>
       <c r="H1" t="n">
-        <v>0.6988811993842581</v>
+        <v>0.42568320549611266</v>
       </c>
       <c r="I1" t="n">
-        <v>0.5969656107561335</v>
+        <v>0.371964676543242</v>
       </c>
       <c r="J1" t="n">
-        <v>0.5047501117608747</v>
+        <v>0.33131791645857983</v>
       </c>
       <c r="K1" t="n">
-        <v>0.43121838161076326</v>
+        <v>0.29822116658453013</v>
       </c>
       <c r="L1" t="n">
-        <v>0.3760814869628206</v>
+        <v>0.2686009176217027</v>
       </c>
       <c r="M1" t="n">
-        <v>0.3345160708278949</v>
+        <v>0.24072888718006447</v>
       </c>
       <c r="N1" t="n">
-        <v>0.30094894741958916</v>
+        <v>0.21478821998454908</v>
       </c>
       <c r="O1" t="n">
-        <v>0.27112785010149265</v>
+        <v>0.19139598961099108</v>
       </c>
       <c r="P1" t="n">
-        <v>0.24311340418799324</v>
+        <v>0.1706243672423805</v>
       </c>
       <c r="Q1" t="n">
-        <v>0.21697396089696677</v>
+        <v>0.15214759025820612</v>
       </c>
       <c r="R1" t="n">
-        <v>0.19334527404982785</v>
+        <v>0.13565621359549668</v>
       </c>
       <c r="S1" t="n">
-        <v>0.1723540143643939</v>
+        <v>0.12093804404593289</v>
       </c>
       <c r="T1" t="n">
-        <v>0.15368957697918056</v>
+        <v>0.10781038640301499</v>
       </c>
       <c r="U1" t="n">
-        <v>0.13703295890543066</v>
+        <v>0.09610327681152464</v>
       </c>
       <c r="V1" t="n">
-        <v>0.12216628858292906</v>
+        <v>0.08566419827901635</v>
       </c>
       <c r="W1" t="n">
-        <v>0.10890578267945694</v>
+        <v>0.07635679014817956</v>
       </c>
       <c r="X1" t="n">
         <v>0.09708009073151327</v>
@@ -399,73 +399,73 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>-1.9562302555890145</v>
+        <v>-1.099189232927488</v>
       </c>
       <c r="B2" t="n">
-        <v>-1.5917070348644633</v>
+        <v>-0.9656152091650854</v>
       </c>
       <c r="C2" t="n">
-        <v>-1.3153877213471854</v>
+        <v>-0.879588145513149</v>
       </c>
       <c r="D2" t="n">
-        <v>-1.1137353747747532</v>
+        <v>-0.8197833352486277</v>
       </c>
       <c r="E2" t="n">
-        <v>-0.9752038834799244</v>
+        <v>-0.7622047257757647</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.885745723438447</v>
+        <v>-0.6924999037042082</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.8246344953534994</v>
+        <v>-0.6118045538935166</v>
       </c>
       <c r="H2" t="n">
-        <v>-0.7676596740449002</v>
+        <v>-0.5295850465176145</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.6991788007389103</v>
+        <v>-0.45456168795599594</v>
       </c>
       <c r="J2" t="n">
-        <v>-0.6191155137047858</v>
+        <v>-0.3911892900994323</v>
       </c>
       <c r="K2" t="n">
-        <v>-0.5366282582675207</v>
+        <v>-0.3399180070509753</v>
       </c>
       <c r="L2" t="n">
-        <v>-0.46072726999099956</v>
+        <v>-0.2985104056986346</v>
       </c>
       <c r="M2" t="n">
-        <v>-0.39626173067447223</v>
+        <v>-0.26377110811895077</v>
       </c>
       <c r="N2" t="n">
-        <v>-0.3439874067446439</v>
+        <v>-0.2333250509791459</v>
       </c>
       <c r="O2" t="n">
-        <v>-0.3018400609770245</v>
+        <v>-0.20625122956011394</v>
       </c>
       <c r="P2" t="n">
-        <v>-0.2666308234922724</v>
+        <v>-0.18235066182978238</v>
       </c>
       <c r="Q2" t="n">
-        <v>-0.23586263286279655</v>
+        <v>-0.16137339079527777</v>
       </c>
       <c r="R2" t="n">
-        <v>-0.2085033832508831</v>
+        <v>-0.14293587556836196</v>
       </c>
       <c r="S2" t="n">
-        <v>-0.18433062860644625</v>
+        <v>-0.1266898405703922</v>
       </c>
       <c r="T2" t="n">
-        <v>-0.16311102778658335</v>
+        <v>-0.11235675513334285</v>
       </c>
       <c r="U2" t="n">
-        <v>-0.14446527848820942</v>
+        <v>-0.09969871208779307</v>
       </c>
       <c r="V2" t="n">
-        <v>-0.12803842533733184</v>
+        <v>-0.08850898504385453</v>
       </c>
       <c r="W2" t="n">
-        <v>-0.1135470904612543</v>
+        <v>-0.07860860363838762</v>
       </c>
       <c r="X2" t="n">
         <v>-0.10075043601077875</v>
@@ -479,73 +479,73 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>255.73511462376163</v>
+        <v>#NUM!</v>
       </c>
       <c r="B3" t="n">
-        <v>321.95143448794767</v>
+        <v>#NUM!</v>
       </c>
       <c r="C3" t="n">
-        <v>405.3128422404624</v>
+        <v>#NUM!</v>
       </c>
       <c r="D3" t="n">
-        <v>510.2586368230384</v>
+        <v>#NUM!</v>
       </c>
       <c r="E3" t="n">
-        <v>642.377564483974</v>
+        <v>#NUM!</v>
       </c>
       <c r="F3" t="n">
-        <v>808.7054398953212</v>
+        <v>#NUM!</v>
       </c>
       <c r="G3" t="n">
-        <v>1018.0998289404004</v>
+        <v>#NUM!</v>
       </c>
       <c r="H3" t="n">
-        <v>1281.7117463963648</v>
+        <v>#NUM!</v>
       </c>
       <c r="I3" t="n">
-        <v>1613.5794881334648</v>
+        <v>#NUM!</v>
       </c>
       <c r="J3" t="n">
-        <v>2031.3762215610436</v>
+        <v>#NUM!</v>
       </c>
       <c r="K3" t="n">
-        <v>2557.3511462376164</v>
+        <v>#NUM!</v>
       </c>
       <c r="L3" t="n">
-        <v>3219.5143448794765</v>
+        <v>#NUM!</v>
       </c>
       <c r="M3" t="n">
-        <v>4053.1284224046235</v>
+        <v>#NUM!</v>
       </c>
       <c r="N3" t="n">
-        <v>5102.586368230384</v>
+        <v>#NUM!</v>
       </c>
       <c r="O3" t="n">
-        <v>6423.77564483974</v>
+        <v>#NUM!</v>
       </c>
       <c r="P3" t="n">
-        <v>8087.054398953212</v>
+        <v>#NUM!</v>
       </c>
       <c r="Q3" t="n">
-        <v>10180.998289404004</v>
+        <v>#NUM!</v>
       </c>
       <c r="R3" t="n">
-        <v>12817.117463963647</v>
+        <v>#NUM!</v>
       </c>
       <c r="S3" t="n">
-        <v>16135.794881334647</v>
+        <v>#NUM!</v>
       </c>
       <c r="T3" t="n">
-        <v>20313.762215610437</v>
+        <v>#NUM!</v>
       </c>
       <c r="U3" t="n">
-        <v>25573.511462376162</v>
+        <v>#NUM!</v>
       </c>
       <c r="V3" t="n">
-        <v>32195.143448794766</v>
+        <v>#NUM!</v>
       </c>
       <c r="W3" t="n">
-        <v>40531.284224046234</v>
+        <v>#NUM!</v>
       </c>
       <c r="X3" t="n">
         <v>51025.86368230384</v>
@@ -572,73 +572,73 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="n">
-        <v>1.0791776967604882</v>
+        <v>1.0469195748570361</v>
       </c>
       <c r="B1" t="n">
-        <v>1.0804458110881643</v>
+        <v>0.9843674149676935</v>
       </c>
       <c r="C1" t="n">
-        <v>1.0746304665865034</v>
+        <v>0.8785094157614681</v>
       </c>
       <c r="D1" t="n">
-        <v>1.0504642018223296</v>
+        <v>0.746978260130778</v>
       </c>
       <c r="E1" t="n">
-        <v>0.9916501724001099</v>
+        <v>0.6213563434235267</v>
       </c>
       <c r="F1" t="n">
-        <v>0.889285770036031</v>
+        <v>0.5213437898693877</v>
       </c>
       <c r="G1" t="n">
-        <v>0.7587450620790261</v>
+        <v>0.4492247339017359</v>
       </c>
       <c r="H1" t="n">
-        <v>0.6315254011612147</v>
+        <v>0.3987571992981874</v>
       </c>
       <c r="I1" t="n">
-        <v>0.5289680277168791</v>
+        <v>0.3619277948144557</v>
       </c>
       <c r="J1" t="n">
-        <v>0.4545851301610544</v>
+        <v>0.3313676843644821</v>
       </c>
       <c r="K1" t="n">
-        <v>0.40253387087294124</v>
+        <v>0.30160913725748384</v>
       </c>
       <c r="L1" t="n">
-        <v>0.36481758894321953</v>
+        <v>0.27080851834932984</v>
       </c>
       <c r="M1" t="n">
-        <v>0.3339641928077525</v>
+        <v>0.24083865260826914</v>
       </c>
       <c r="N1" t="n">
-        <v>0.30427264664770237</v>
+        <v>0.21407852189159426</v>
       </c>
       <c r="O1" t="n">
-        <v>0.2735273253061648</v>
+        <v>0.19089176633589228</v>
       </c>
       <c r="P1" t="n">
-        <v>0.2433687815339304</v>
+        <v>0.17041160720989385</v>
       </c>
       <c r="Q1" t="n">
-        <v>0.2162802498091254</v>
+        <v>0.15202619166144846</v>
       </c>
       <c r="R1" t="n">
-        <v>0.19280921967164316</v>
+        <v>0.13555992100750525</v>
       </c>
       <c r="S1" t="n">
-        <v>0.17212442931316482</v>
+        <v>0.12086895276174611</v>
       </c>
       <c r="T1" t="n">
-        <v>0.1535649522383856</v>
+        <v>0.10776256751134841</v>
       </c>
       <c r="U1" t="n">
-        <v>0.13693442987560273</v>
+        <v>0.0960696893867338</v>
       </c>
       <c r="V1" t="n">
-        <v>0.12209491069034902</v>
+        <v>0.08564059840939212</v>
       </c>
       <c r="W1" t="n">
-        <v>0.1088564302693338</v>
+        <v>0.07634019896676877</v>
       </c>
       <c r="X1" t="n">
         <v>0.09704544642029754</v>
@@ -652,73 +652,73 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>-2.0023275834600214</v>
+        <v>-1.2265215913312877</v>
       </c>
       <c r="B2" t="n">
-        <v>-1.656054267798235</v>
+        <v>-1.1237978998246372</v>
       </c>
       <c r="C2" t="n">
-        <v>-1.4059561861435312</v>
+        <v>-1.0444654954776713</v>
       </c>
       <c r="D2" t="n">
-        <v>-1.2379604139210114</v>
+        <v>-0.9540337130480456</v>
       </c>
       <c r="E2" t="n">
-        <v>-1.1313055822411957</v>
+        <v>-0.8430324116516204</v>
       </c>
       <c r="F2" t="n">
-        <v>-1.05151426057394</v>
+        <v>-0.7241057881239826</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.9628854303823613</v>
+        <v>-0.6125489548416355</v>
       </c>
       <c r="H2" t="n">
-        <v>-0.853365974041126</v>
+        <v>-0.5171807587260168</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.7344550882635237</v>
+        <v>-0.44082270862446843</v>
       </c>
       <c r="J2" t="n">
-        <v>-0.6217920368942901</v>
+        <v>-0.3822504515718389</v>
       </c>
       <c r="K2" t="n">
-        <v>-0.5248157347374648</v>
+        <v>-0.3371494138835294</v>
       </c>
       <c r="L2" t="n">
-        <v>-0.44678467513813924</v>
+        <v>-0.29962681993174123</v>
       </c>
       <c r="M2" t="n">
-        <v>-0.386781177049451</v>
+        <v>-0.2655199986945781</v>
       </c>
       <c r="N2" t="n">
-        <v>-0.3407280019668514</v>
+        <v>-0.23419043723273117</v>
       </c>
       <c r="O2" t="n">
-        <v>-0.30275532876004435</v>
+        <v>-0.20647562827440022</v>
       </c>
       <c r="P2" t="n">
-        <v>-0.2684190454962348</v>
+        <v>-0.1824566182674735</v>
       </c>
       <c r="Q2" t="n">
-        <v>-0.2368113430557519</v>
+        <v>-0.16149107501178628</v>
       </c>
       <c r="R2" t="n">
-        <v>-0.20875867711494853</v>
+        <v>-0.1430277375524668</v>
       </c>
       <c r="S2" t="n">
-        <v>-0.18443649669157428</v>
+        <v>-0.12675202496819402</v>
       </c>
       <c r="T2" t="n">
-        <v>-0.16322909630404775</v>
+        <v>-0.11240067409913186</v>
       </c>
       <c r="U2" t="n">
-        <v>-0.14456019093227337</v>
+        <v>-0.09972991738829827</v>
       </c>
       <c r="V2" t="n">
-        <v>-0.12810268576187536</v>
+        <v>-0.08853107815682797</v>
       </c>
       <c r="W2" t="n">
-        <v>-0.1135923346088546</v>
+        <v>-0.07862425108313131</v>
       </c>
       <c r="X2" t="n">
         <v>-0.1007826027060906</v>
@@ -732,73 +732,73 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>255.73511462376163</v>
+        <v>#NUM!</v>
       </c>
       <c r="B3" t="n">
-        <v>321.95143448794767</v>
+        <v>#NUM!</v>
       </c>
       <c r="C3" t="n">
-        <v>405.3128422404624</v>
+        <v>#NUM!</v>
       </c>
       <c r="D3" t="n">
-        <v>510.2586368230384</v>
+        <v>#NUM!</v>
       </c>
       <c r="E3" t="n">
-        <v>642.377564483974</v>
+        <v>#NUM!</v>
       </c>
       <c r="F3" t="n">
-        <v>808.7054398953212</v>
+        <v>#NUM!</v>
       </c>
       <c r="G3" t="n">
-        <v>1018.0998289404004</v>
+        <v>#NUM!</v>
       </c>
       <c r="H3" t="n">
-        <v>1281.7117463963648</v>
+        <v>#NUM!</v>
       </c>
       <c r="I3" t="n">
-        <v>1613.5794881334648</v>
+        <v>#NUM!</v>
       </c>
       <c r="J3" t="n">
-        <v>2031.3762215610436</v>
+        <v>#NUM!</v>
       </c>
       <c r="K3" t="n">
-        <v>2557.3511462376164</v>
+        <v>#NUM!</v>
       </c>
       <c r="L3" t="n">
-        <v>3219.5143448794765</v>
+        <v>#NUM!</v>
       </c>
       <c r="M3" t="n">
-        <v>4053.1284224046235</v>
+        <v>#NUM!</v>
       </c>
       <c r="N3" t="n">
-        <v>5102.586368230384</v>
+        <v>#NUM!</v>
       </c>
       <c r="O3" t="n">
-        <v>6423.77564483974</v>
+        <v>#NUM!</v>
       </c>
       <c r="P3" t="n">
-        <v>8087.054398953212</v>
+        <v>#NUM!</v>
       </c>
       <c r="Q3" t="n">
-        <v>10180.998289404004</v>
+        <v>#NUM!</v>
       </c>
       <c r="R3" t="n">
-        <v>12817.117463963647</v>
+        <v>#NUM!</v>
       </c>
       <c r="S3" t="n">
-        <v>16135.794881334647</v>
+        <v>#NUM!</v>
       </c>
       <c r="T3" t="n">
-        <v>20313.762215610437</v>
+        <v>#NUM!</v>
       </c>
       <c r="U3" t="n">
-        <v>25573.511462376162</v>
+        <v>#NUM!</v>
       </c>
       <c r="V3" t="n">
-        <v>32195.143448794766</v>
+        <v>#NUM!</v>
       </c>
       <c r="W3" t="n">
-        <v>40531.284224046234</v>
+        <v>#NUM!</v>
       </c>
       <c r="X3" t="n">
         <v>51025.86368230384</v>
@@ -825,73 +825,73 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="n">
-        <v>0.9014903967253571</v>
+        <v>0.8329992270174753</v>
       </c>
       <c r="B1" t="n">
-        <v>0.8898535158353048</v>
+        <v>0.7845727824381286</v>
       </c>
       <c r="C1" t="n">
-        <v>0.8695278500855016</v>
+        <v>0.7253532704749369</v>
       </c>
       <c r="D1" t="n">
-        <v>0.8365893049326445</v>
+        <v>0.6616005163661562</v>
       </c>
       <c r="E1" t="n">
-        <v>0.7893475997963362</v>
+        <v>0.598424075269218</v>
       </c>
       <c r="F1" t="n">
-        <v>0.7308362308276368</v>
+        <v>0.5387829587840419</v>
       </c>
       <c r="G1" t="n">
-        <v>0.6672421882246665</v>
+        <v>0.48450967805579387</v>
       </c>
       <c r="H1" t="n">
-        <v>0.603871854872921</v>
+        <v>0.4364413689492016</v>
       </c>
       <c r="I1" t="n">
-        <v>0.5438352344320342</v>
+        <v>0.39373370671536007</v>
       </c>
       <c r="J1" t="n">
-        <v>0.4890370693543849</v>
+        <v>0.3540200787946776</v>
       </c>
       <c r="K1" t="n">
-        <v>0.4404287833579594</v>
+        <v>0.315321682966441</v>
       </c>
       <c r="L1" t="n">
-        <v>0.3973306665130912</v>
+        <v>0.2782343227184306</v>
       </c>
       <c r="M1" t="n">
-        <v>0.357457775352586</v>
+        <v>0.24511408335730037</v>
       </c>
       <c r="N1" t="n">
-        <v>0.3186902381387416</v>
+        <v>0.21705050199392897</v>
       </c>
       <c r="O1" t="n">
-        <v>0.2813707421425392</v>
+        <v>0.19312082007750442</v>
       </c>
       <c r="P1" t="n">
-        <v>0.24782338157893868</v>
+        <v>0.1720164398677012</v>
       </c>
       <c r="Q1" t="n">
-        <v>0.21933158782185594</v>
+        <v>0.15314091549825637</v>
       </c>
       <c r="R1" t="n">
-        <v>0.19509746251032492</v>
+        <v>0.13633601275590174</v>
       </c>
       <c r="S1" t="n">
-        <v>0.17377976071515047</v>
+        <v>0.12141323475733144</v>
       </c>
       <c r="T1" t="n">
-        <v>0.15471629306699988</v>
+        <v>0.108144522463204</v>
       </c>
       <c r="U1" t="n">
-        <v>0.1377353010848472</v>
+        <v>0.09633787165527591</v>
       </c>
       <c r="V1" t="n">
-        <v>0.1226564095566381</v>
+        <v>0.085829068613984</v>
       </c>
       <c r="W1" t="n">
-        <v>0.1092504697829675</v>
+        <v>0.0764727492709568</v>
       </c>
       <c r="X1" t="n">
         <v>0.0973220911114971</v>
@@ -905,73 +905,73 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>-2.0030942110557124</v>
+        <v>-1.1575747973895794</v>
       </c>
       <c r="B2" t="n">
-        <v>-1.6473522410460668</v>
+        <v>-1.0037864393315497</v>
       </c>
       <c r="C2" t="n">
-        <v>-1.377109910171655</v>
+        <v>-0.8790650748294538</v>
       </c>
       <c r="D2" t="n">
-        <v>-1.173005516226582</v>
+        <v>-0.7730494589357377</v>
       </c>
       <c r="E2" t="n">
-        <v>-1.0159458596285735</v>
+        <v>-0.680732398389507</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.889180535533117</v>
+        <v>-0.5994846740259604</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.7817764959397431</v>
+        <v>-0.5278148127637907</v>
       </c>
       <c r="H2" t="n">
-        <v>-0.6883786057372561</v>
+        <v>-0.4654543336216891</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.6062338591216604</v>
+        <v>-0.41271556632101936</v>
       </c>
       <c r="J2" t="n">
-        <v>-0.5337494995353955</v>
+        <v>-0.3688597301200048</v>
       </c>
       <c r="K2" t="n">
-        <v>-0.4705562667519092</v>
+        <v>-0.3310494910934007</v>
       </c>
       <c r="L2" t="n">
-        <v>-0.41697325768985594</v>
+        <v>-0.2958711882184814</v>
       </c>
       <c r="M2" t="n">
-        <v>-0.3724207523820761</v>
+        <v>-0.26223637330468225</v>
       </c>
       <c r="N2" t="n">
-        <v>-0.3342295793584941</v>
+        <v>-0.23139211525259898</v>
       </c>
       <c r="O2" t="n">
-        <v>-0.2989101655028694</v>
+        <v>-0.20440581164808702</v>
       </c>
       <c r="P2" t="n">
-        <v>-0.26510712821829097</v>
+        <v>-0.18103041495745498</v>
       </c>
       <c r="Q2" t="n">
-        <v>-0.23395644071414876</v>
+        <v>-0.16049829053820516</v>
       </c>
       <c r="R2" t="n">
-        <v>-0.20662396578021092</v>
+        <v>-0.14232350776229374</v>
       </c>
       <c r="S2" t="n">
-        <v>-0.18296232381827573</v>
+        <v>-0.12625265533935007</v>
       </c>
       <c r="T2" t="n">
-        <v>-0.16220527129614376</v>
+        <v>-0.11204727319333613</v>
       </c>
       <c r="U2" t="n">
-        <v>-0.14383447150779458</v>
+        <v>-0.0994797489311971</v>
       </c>
       <c r="V2" t="n">
-        <v>-0.1275879140261056</v>
+        <v>-0.08835397651687557</v>
       </c>
       <c r="W2" t="n">
-        <v>-0.11322802341918296</v>
+        <v>-0.07849887595731693</v>
       </c>
       <c r="X2" t="n">
         <v>-0.10052471707775015</v>
@@ -985,73 +985,73 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>255.73511462376163</v>
+        <v>#NUM!</v>
       </c>
       <c r="B3" t="n">
-        <v>321.95143448794767</v>
+        <v>#NUM!</v>
       </c>
       <c r="C3" t="n">
-        <v>405.3128422404624</v>
+        <v>#NUM!</v>
       </c>
       <c r="D3" t="n">
-        <v>510.2586368230384</v>
+        <v>#NUM!</v>
       </c>
       <c r="E3" t="n">
-        <v>642.377564483974</v>
+        <v>#NUM!</v>
       </c>
       <c r="F3" t="n">
-        <v>808.7054398953212</v>
+        <v>#NUM!</v>
       </c>
       <c r="G3" t="n">
-        <v>1018.0998289404004</v>
+        <v>#NUM!</v>
       </c>
       <c r="H3" t="n">
-        <v>1281.7117463963648</v>
+        <v>#NUM!</v>
       </c>
       <c r="I3" t="n">
-        <v>1613.5794881334648</v>
+        <v>#NUM!</v>
       </c>
       <c r="J3" t="n">
-        <v>2031.3762215610436</v>
+        <v>#NUM!</v>
       </c>
       <c r="K3" t="n">
-        <v>2557.3511462376164</v>
+        <v>#NUM!</v>
       </c>
       <c r="L3" t="n">
-        <v>3219.5143448794765</v>
+        <v>#NUM!</v>
       </c>
       <c r="M3" t="n">
-        <v>4053.1284224046235</v>
+        <v>#NUM!</v>
       </c>
       <c r="N3" t="n">
-        <v>5102.586368230384</v>
+        <v>#NUM!</v>
       </c>
       <c r="O3" t="n">
-        <v>6423.77564483974</v>
+        <v>#NUM!</v>
       </c>
       <c r="P3" t="n">
-        <v>8087.054398953212</v>
+        <v>#NUM!</v>
       </c>
       <c r="Q3" t="n">
-        <v>10180.998289404004</v>
+        <v>#NUM!</v>
       </c>
       <c r="R3" t="n">
-        <v>12817.117463963647</v>
+        <v>#NUM!</v>
       </c>
       <c r="S3" t="n">
-        <v>16135.794881334647</v>
+        <v>#NUM!</v>
       </c>
       <c r="T3" t="n">
-        <v>20313.762215610437</v>
+        <v>#NUM!</v>
       </c>
       <c r="U3" t="n">
-        <v>25573.511462376162</v>
+        <v>#NUM!</v>
       </c>
       <c r="V3" t="n">
-        <v>32195.143448794766</v>
+        <v>#NUM!</v>
       </c>
       <c r="W3" t="n">
-        <v>40531.284224046234</v>
+        <v>#NUM!</v>
       </c>
       <c r="X3" t="n">
         <v>51025.86368230384</v>

--- a/lin_R1_by_R2 (1 by 2.5)100.xlsx
+++ b/lin_R1_by_R2 (1 by 2.5)100.xlsx
@@ -226,73 +226,73 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>#NUM!</v>
+        <v>520.6987464315688</v>
       </c>
       <c r="B3" t="n">
-        <v>#NUM!</v>
+        <v>655.5208837720694</v>
       </c>
       <c r="C3" t="n">
-        <v>#NUM!</v>
+        <v>825.2518985424289</v>
       </c>
       <c r="D3" t="n">
-        <v>#NUM!</v>
+        <v>1038.9305862064455</v>
       </c>
       <c r="E3" t="n">
-        <v>#NUM!</v>
+        <v>1307.936116065505</v>
       </c>
       <c r="F3" t="n">
-        <v>#NUM!</v>
+        <v>1646.5940135182295</v>
       </c>
       <c r="G3" t="n">
-        <v>#NUM!</v>
+        <v>2072.9390465262477</v>
       </c>
       <c r="H3" t="n">
-        <v>#NUM!</v>
+        <v>2609.675642772265</v>
       </c>
       <c r="I3" t="n">
-        <v>#NUM!</v>
+        <v>3285.3869832262812</v>
       </c>
       <c r="J3" t="n">
-        <v>#NUM!</v>
+        <v>4136.057160761343</v>
       </c>
       <c r="K3" t="n">
-        <v>#NUM!</v>
+        <v>5206.987464315687</v>
       </c>
       <c r="L3" t="n">
-        <v>#NUM!</v>
+        <v>6555.208837720694</v>
       </c>
       <c r="M3" t="n">
-        <v>#NUM!</v>
+        <v>8252.518985424289</v>
       </c>
       <c r="N3" t="n">
-        <v>#NUM!</v>
+        <v>10389.305862064455</v>
       </c>
       <c r="O3" t="n">
-        <v>#NUM!</v>
+        <v>13079.36116065505</v>
       </c>
       <c r="P3" t="n">
-        <v>#NUM!</v>
+        <v>16465.940135182296</v>
       </c>
       <c r="Q3" t="n">
-        <v>#NUM!</v>
+        <v>20729.390465262477</v>
       </c>
       <c r="R3" t="n">
-        <v>#NUM!</v>
+        <v>26096.756427722645</v>
       </c>
       <c r="S3" t="n">
-        <v>#NUM!</v>
+        <v>32853.86983226281</v>
       </c>
       <c r="T3" t="n">
-        <v>#NUM!</v>
+        <v>41360.57160761343</v>
       </c>
       <c r="U3" t="n">
-        <v>#NUM!</v>
+        <v>52069.87464315688</v>
       </c>
       <c r="V3" t="n">
-        <v>#NUM!</v>
+        <v>65552.08837720694</v>
       </c>
       <c r="W3" t="n">
-        <v>#NUM!</v>
+        <v>82525.18985424288</v>
       </c>
       <c r="X3" t="n">
         <v>51025.86368230384</v>
@@ -479,73 +479,73 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>#NUM!</v>
+        <v>520.6987464315688</v>
       </c>
       <c r="B3" t="n">
-        <v>#NUM!</v>
+        <v>655.5208837720694</v>
       </c>
       <c r="C3" t="n">
-        <v>#NUM!</v>
+        <v>825.2518985424289</v>
       </c>
       <c r="D3" t="n">
-        <v>#NUM!</v>
+        <v>1038.9305862064455</v>
       </c>
       <c r="E3" t="n">
-        <v>#NUM!</v>
+        <v>1307.936116065505</v>
       </c>
       <c r="F3" t="n">
-        <v>#NUM!</v>
+        <v>1646.5940135182295</v>
       </c>
       <c r="G3" t="n">
-        <v>#NUM!</v>
+        <v>2072.9390465262477</v>
       </c>
       <c r="H3" t="n">
-        <v>#NUM!</v>
+        <v>2609.675642772265</v>
       </c>
       <c r="I3" t="n">
-        <v>#NUM!</v>
+        <v>3285.3869832262812</v>
       </c>
       <c r="J3" t="n">
-        <v>#NUM!</v>
+        <v>4136.057160761343</v>
       </c>
       <c r="K3" t="n">
-        <v>#NUM!</v>
+        <v>5206.987464315687</v>
       </c>
       <c r="L3" t="n">
-        <v>#NUM!</v>
+        <v>6555.208837720694</v>
       </c>
       <c r="M3" t="n">
-        <v>#NUM!</v>
+        <v>8252.518985424289</v>
       </c>
       <c r="N3" t="n">
-        <v>#NUM!</v>
+        <v>10389.305862064455</v>
       </c>
       <c r="O3" t="n">
-        <v>#NUM!</v>
+        <v>13079.36116065505</v>
       </c>
       <c r="P3" t="n">
-        <v>#NUM!</v>
+        <v>16465.940135182296</v>
       </c>
       <c r="Q3" t="n">
-        <v>#NUM!</v>
+        <v>20729.390465262477</v>
       </c>
       <c r="R3" t="n">
-        <v>#NUM!</v>
+        <v>26096.756427722645</v>
       </c>
       <c r="S3" t="n">
-        <v>#NUM!</v>
+        <v>32853.86983226281</v>
       </c>
       <c r="T3" t="n">
-        <v>#NUM!</v>
+        <v>41360.57160761343</v>
       </c>
       <c r="U3" t="n">
-        <v>#NUM!</v>
+        <v>52069.87464315688</v>
       </c>
       <c r="V3" t="n">
-        <v>#NUM!</v>
+        <v>65552.08837720694</v>
       </c>
       <c r="W3" t="n">
-        <v>#NUM!</v>
+        <v>82525.18985424288</v>
       </c>
       <c r="X3" t="n">
         <v>51025.86368230384</v>
@@ -732,73 +732,73 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>#NUM!</v>
+        <v>520.6987464315688</v>
       </c>
       <c r="B3" t="n">
-        <v>#NUM!</v>
+        <v>655.5208837720694</v>
       </c>
       <c r="C3" t="n">
-        <v>#NUM!</v>
+        <v>825.2518985424289</v>
       </c>
       <c r="D3" t="n">
-        <v>#NUM!</v>
+        <v>1038.9305862064455</v>
       </c>
       <c r="E3" t="n">
-        <v>#NUM!</v>
+        <v>1307.936116065505</v>
       </c>
       <c r="F3" t="n">
-        <v>#NUM!</v>
+        <v>1646.5940135182295</v>
       </c>
       <c r="G3" t="n">
-        <v>#NUM!</v>
+        <v>2072.9390465262477</v>
       </c>
       <c r="H3" t="n">
-        <v>#NUM!</v>
+        <v>2609.675642772265</v>
       </c>
       <c r="I3" t="n">
-        <v>#NUM!</v>
+        <v>3285.3869832262812</v>
       </c>
       <c r="J3" t="n">
-        <v>#NUM!</v>
+        <v>4136.057160761343</v>
       </c>
       <c r="K3" t="n">
-        <v>#NUM!</v>
+        <v>5206.987464315687</v>
       </c>
       <c r="L3" t="n">
-        <v>#NUM!</v>
+        <v>6555.208837720694</v>
       </c>
       <c r="M3" t="n">
-        <v>#NUM!</v>
+        <v>8252.518985424289</v>
       </c>
       <c r="N3" t="n">
-        <v>#NUM!</v>
+        <v>10389.305862064455</v>
       </c>
       <c r="O3" t="n">
-        <v>#NUM!</v>
+        <v>13079.36116065505</v>
       </c>
       <c r="P3" t="n">
-        <v>#NUM!</v>
+        <v>16465.940135182296</v>
       </c>
       <c r="Q3" t="n">
-        <v>#NUM!</v>
+        <v>20729.390465262477</v>
       </c>
       <c r="R3" t="n">
-        <v>#NUM!</v>
+        <v>26096.756427722645</v>
       </c>
       <c r="S3" t="n">
-        <v>#NUM!</v>
+        <v>32853.86983226281</v>
       </c>
       <c r="T3" t="n">
-        <v>#NUM!</v>
+        <v>41360.57160761343</v>
       </c>
       <c r="U3" t="n">
-        <v>#NUM!</v>
+        <v>52069.87464315688</v>
       </c>
       <c r="V3" t="n">
-        <v>#NUM!</v>
+        <v>65552.08837720694</v>
       </c>
       <c r="W3" t="n">
-        <v>#NUM!</v>
+        <v>82525.18985424288</v>
       </c>
       <c r="X3" t="n">
         <v>51025.86368230384</v>
@@ -985,73 +985,73 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>#NUM!</v>
+        <v>520.6987464315688</v>
       </c>
       <c r="B3" t="n">
-        <v>#NUM!</v>
+        <v>655.5208837720694</v>
       </c>
       <c r="C3" t="n">
-        <v>#NUM!</v>
+        <v>825.2518985424289</v>
       </c>
       <c r="D3" t="n">
-        <v>#NUM!</v>
+        <v>1038.9305862064455</v>
       </c>
       <c r="E3" t="n">
-        <v>#NUM!</v>
+        <v>1307.936116065505</v>
       </c>
       <c r="F3" t="n">
-        <v>#NUM!</v>
+        <v>1646.5940135182295</v>
       </c>
       <c r="G3" t="n">
-        <v>#NUM!</v>
+        <v>2072.9390465262477</v>
       </c>
       <c r="H3" t="n">
-        <v>#NUM!</v>
+        <v>2609.675642772265</v>
       </c>
       <c r="I3" t="n">
-        <v>#NUM!</v>
+        <v>3285.3869832262812</v>
       </c>
       <c r="J3" t="n">
-        <v>#NUM!</v>
+        <v>4136.057160761343</v>
       </c>
       <c r="K3" t="n">
-        <v>#NUM!</v>
+        <v>5206.987464315687</v>
       </c>
       <c r="L3" t="n">
-        <v>#NUM!</v>
+        <v>6555.208837720694</v>
       </c>
       <c r="M3" t="n">
-        <v>#NUM!</v>
+        <v>8252.518985424289</v>
       </c>
       <c r="N3" t="n">
-        <v>#NUM!</v>
+        <v>10389.305862064455</v>
       </c>
       <c r="O3" t="n">
-        <v>#NUM!</v>
+        <v>13079.36116065505</v>
       </c>
       <c r="P3" t="n">
-        <v>#NUM!</v>
+        <v>16465.940135182296</v>
       </c>
       <c r="Q3" t="n">
-        <v>#NUM!</v>
+        <v>20729.390465262477</v>
       </c>
       <c r="R3" t="n">
-        <v>#NUM!</v>
+        <v>26096.756427722645</v>
       </c>
       <c r="S3" t="n">
-        <v>#NUM!</v>
+        <v>32853.86983226281</v>
       </c>
       <c r="T3" t="n">
-        <v>#NUM!</v>
+        <v>41360.57160761343</v>
       </c>
       <c r="U3" t="n">
-        <v>#NUM!</v>
+        <v>52069.87464315688</v>
       </c>
       <c r="V3" t="n">
-        <v>#NUM!</v>
+        <v>65552.08837720694</v>
       </c>
       <c r="W3" t="n">
-        <v>#NUM!</v>
+        <v>82525.18985424288</v>
       </c>
       <c r="X3" t="n">
         <v>51025.86368230384</v>

--- a/lin_R1_by_R2 (1 by 2.5)100.xlsx
+++ b/lin_R1_by_R2 (1 by 2.5)100.xlsx
@@ -66,242 +66,359 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="n">
-        <v>0.8413020347806922</v>
+        <v>0.9165937144163926</v>
       </c>
       <c r="B1" t="n">
-        <v>0.8055183692163721</v>
+        <v>0.9165510535399767</v>
       </c>
       <c r="C1" t="n">
-        <v>0.7579303577274205</v>
+        <v>0.9164834533003844</v>
       </c>
       <c r="D1" t="n">
-        <v>0.6990394871695588</v>
+        <v>0.9163763460123118</v>
       </c>
       <c r="E1" t="n">
-        <v>0.6321721336164984</v>
+        <v>0.9162066724104728</v>
       </c>
       <c r="F1" t="n">
-        <v>0.5629470072987623</v>
+        <v>0.9159379586603869</v>
       </c>
       <c r="G1" t="n">
-        <v>0.49718149354746904</v>
+        <v>0.9155125796672654</v>
       </c>
       <c r="H1" t="n">
-        <v>0.4386254708616616</v>
+        <v>0.9148396613951545</v>
       </c>
       <c r="I1" t="n">
-        <v>0.38817658467213123</v>
+        <v>0.9137763159576437</v>
       </c>
       <c r="J1" t="n">
-        <v>0.3447645376158372</v>
+        <v>0.9120989130851463</v>
       </c>
       <c r="K1" t="n">
-        <v>0.30680432365054333</v>
+        <v>0.9094600330746</v>
       </c>
       <c r="L1" t="n">
-        <v>0.273135474896869</v>
+        <v>0.9053262617925966</v>
       </c>
       <c r="M1" t="n">
-        <v>0.24314270683184994</v>
+        <v>0.898893880202664</v>
       </c>
       <c r="N1" t="n">
-        <v>0.21645625701588683</v>
+        <v>0.8889879632574577</v>
       </c>
       <c r="O1" t="n">
-        <v>0.19273387435034198</v>
+        <v>0.8739733946800762</v>
       </c>
       <c r="P1" t="n">
-        <v>0.17163980431151263</v>
+        <v>0.8517540060427781</v>
       </c>
       <c r="Q1" t="n">
-        <v>0.15287418837324782</v>
+        <v>0.82000660583243</v>
       </c>
       <c r="R1" t="n">
-        <v>0.13617515011888948</v>
+        <v>0.7768343440803275</v>
       </c>
       <c r="S1" t="n">
-        <v>0.12131154058447093</v>
+        <v>0.7218712957427573</v>
       </c>
       <c r="T1" t="n">
-        <v>0.10807880542774007</v>
+        <v>0.657374179585785</v>
       </c>
       <c r="U1" t="n">
-        <v>0.09629585656895887</v>
+        <v>0.5882941891189847</v>
       </c>
       <c r="V1" t="n">
-        <v>0.08580223050516304</v>
+        <v>0.5206732446316311</v>
       </c>
       <c r="W1" t="n">
-        <v>0.07645562234803552</v>
+        <v>0.45921485258122574</v>
       </c>
       <c r="X1" t="n">
-        <v>0.0972783856233657</v>
+        <v>0.4058353456898528</v>
       </c>
       <c r="Y1" t="n">
-        <v>0.08667730509799386</v>
+        <v>0.36002049613561066</v>
       </c>
       <c r="Z1" t="n">
-        <v>0.0772350883716285</v>
+        <v>0.3202223974705103</v>
+      </c>
+      <c r="AA1" t="n">
+        <v>0.28507035473476006</v>
+      </c>
+      <c r="AB1" t="n">
+        <v>0.25377414835988016</v>
+      </c>
+      <c r="AC1" t="n">
+        <v>0.22591065426950765</v>
+      </c>
+      <c r="AD1" t="n">
+        <v>0.20113804849032138</v>
+      </c>
+      <c r="AE1" t="n">
+        <v>0.1791141632175659</v>
+      </c>
+      <c r="AF1" t="n">
+        <v>0.15952423642574726</v>
+      </c>
+      <c r="AG1" t="n">
+        <v>0.14209333538694166</v>
+      </c>
+      <c r="AH1" t="n">
+        <v>0.12657963316920937</v>
+      </c>
+      <c r="AI1" t="n">
+        <v>0.11276916616904202</v>
+      </c>
+      <c r="AJ1" t="n">
+        <v>0.1004725639549673</v>
+      </c>
+      <c r="AK1" t="n">
+        <v>0.08952208124009185</v>
+      </c>
+      <c r="AL1" t="n">
+        <v>0.07976899831936146</v>
+      </c>
+      <c r="AM1" t="n">
+        <v>0.07108136320250966</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>-1.133171057154739</v>
+        <v>-31.837875626354315</v>
       </c>
       <c r="B2" t="n">
-        <v>-0.9797853248728094</v>
+        <v>-25.292922632354</v>
       </c>
       <c r="C2" t="n">
-        <v>-0.8636004410783181</v>
+        <v>-20.094909284389164</v>
       </c>
       <c r="D2" t="n">
-        <v>-0.7718152382751011</v>
+        <v>-15.967021705705621</v>
       </c>
       <c r="E2" t="n">
-        <v>-0.6935747140165974</v>
+        <v>-12.689433412197404</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.6216490846506015</v>
+        <v>-10.087598049566973</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.5532683485900252</v>
+        <v>-8.022952770241668</v>
       </c>
       <c r="H2" t="n">
-        <v>-0.4890459470906483</v>
+        <v>-6.38553649351058</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.43070282875076593</v>
+        <v>-5.088128617266507</v>
       </c>
       <c r="J2" t="n">
-        <v>-0.37924274780841405</v>
+        <v>-4.0615934753857434</v>
       </c>
       <c r="K2" t="n">
-        <v>-0.33445422830312915</v>
+        <v>-3.2511777236157826</v>
       </c>
       <c r="L2" t="n">
-        <v>-0.2954185897808407</v>
+        <v>-2.6135544374295714</v>
       </c>
       <c r="M2" t="n">
-        <v>-0.2611868094156081</v>
+        <v>-2.1144406293122895</v>
       </c>
       <c r="N2" t="n">
-        <v>-0.2310620617805532</v>
+        <v>-1.726635824705277</v>
       </c>
       <c r="O2" t="n">
-        <v>-0.20453062866921132</v>
+        <v>-1.4283432399408207</v>
       </c>
       <c r="P2" t="n">
-        <v>-0.1811525418312769</v>
+        <v>-1.201657941969404</v>
       </c>
       <c r="Q2" t="n">
-        <v>-0.16053572609156255</v>
+        <v>-1.0311763521715454</v>
       </c>
       <c r="R2" t="n">
-        <v>-0.1423383811201906</v>
+        <v>-0.902853187658085</v>
       </c>
       <c r="S2" t="n">
-        <v>-0.12626388830878604</v>
+        <v>-0.8034920197401074</v>
       </c>
       <c r="T2" t="n">
-        <v>-0.11205400774313672</v>
+        <v>-0.721335988777897</v>
       </c>
       <c r="U2" t="n">
-        <v>-0.09948361888841176</v>
+        <v>-0.6476430492111885</v>
       </c>
       <c r="V2" t="n">
-        <v>-0.08835624575259013</v>
+        <v>-0.5780219788650269</v>
       </c>
       <c r="W2" t="n">
-        <v>-0.0785001969654275</v>
+        <v>-0.5120774790777136</v>
       </c>
       <c r="X2" t="n">
-        <v>-0.10052877343339708</v>
+        <v>-0.4513916649961602</v>
       </c>
       <c r="Y2" t="n">
-        <v>-0.08928169317038123</v>
+        <v>-0.39736382166202944</v>
       </c>
       <c r="Z2" t="n">
-        <v>-0.07932013351456937</v>
+        <v>-0.3502069766015342</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>-0.30917493541500785</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>-0.2732709929335161</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>-0.24170163132627404</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>-0.21390204696032683</v>
+      </c>
+      <c r="AE2" t="n">
+        <v>-0.18941211663732005</v>
+      </c>
+      <c r="AF2" t="n">
+        <v>-0.16782185779121703</v>
+      </c>
+      <c r="AG2" t="n">
+        <v>-0.1487711558958226</v>
+      </c>
+      <c r="AH2" t="n">
+        <v>-0.1319476440618062</v>
+      </c>
+      <c r="AI2" t="n">
+        <v>-0.11707963798432695</v>
+      </c>
+      <c r="AJ2" t="n">
+        <v>-0.10393038672639199</v>
+      </c>
+      <c r="AK2" t="n">
+        <v>-0.09229335710241024</v>
+      </c>
+      <c r="AL2" t="n">
+        <v>-0.08198815230821956</v>
+      </c>
+      <c r="AM2" t="n">
+        <v>-0.07285700749467623</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>520.6987464315688</v>
+        <v>15.128593040847202</v>
       </c>
       <c r="B3" t="n">
-        <v>655.5208837720694</v>
+        <v>19.045770223814934</v>
       </c>
       <c r="C3" t="n">
-        <v>825.2518985424289</v>
+        <v>23.977204121953307</v>
       </c>
       <c r="D3" t="n">
-        <v>1038.9305862064455</v>
+        <v>30.18551157290287</v>
       </c>
       <c r="E3" t="n">
-        <v>1307.936116065505</v>
+        <v>38.00130758713434</v>
       </c>
       <c r="F3" t="n">
-        <v>1646.5940135182295</v>
+        <v>47.84081180284991</v>
       </c>
       <c r="G3" t="n">
-        <v>2072.9390465262477</v>
+        <v>60.22801369947008</v>
       </c>
       <c r="H3" t="n">
-        <v>2609.675642772265</v>
+        <v>75.82257694815011</v>
       </c>
       <c r="I3" t="n">
-        <v>3285.3869832262812</v>
+        <v>95.45496890774481</v>
       </c>
       <c r="J3" t="n">
-        <v>4136.057160761343</v>
+        <v>120.17068603998207</v>
       </c>
       <c r="K3" t="n">
-        <v>5206.987464315687</v>
+        <v>151.285930408472</v>
       </c>
       <c r="L3" t="n">
-        <v>6555.208837720694</v>
+        <v>190.45770223814935</v>
       </c>
       <c r="M3" t="n">
-        <v>8252.518985424289</v>
+        <v>239.77204121953307</v>
       </c>
       <c r="N3" t="n">
-        <v>10389.305862064455</v>
+        <v>301.8551157290287</v>
       </c>
       <c r="O3" t="n">
-        <v>13079.36116065505</v>
+        <v>380.01307587134346</v>
       </c>
       <c r="P3" t="n">
-        <v>16465.940135182296</v>
+        <v>478.40811802849913</v>
       </c>
       <c r="Q3" t="n">
-        <v>20729.390465262477</v>
+        <v>602.2801369947008</v>
       </c>
       <c r="R3" t="n">
-        <v>26096.756427722645</v>
+        <v>758.2257694815012</v>
       </c>
       <c r="S3" t="n">
-        <v>32853.86983226281</v>
+        <v>954.5496890774482</v>
       </c>
       <c r="T3" t="n">
-        <v>41360.57160761343</v>
+        <v>1201.7068603998207</v>
       </c>
       <c r="U3" t="n">
-        <v>52069.87464315688</v>
+        <v>1512.8593040847202</v>
       </c>
       <c r="V3" t="n">
-        <v>65552.08837720694</v>
+        <v>1904.5770223814934</v>
       </c>
       <c r="W3" t="n">
-        <v>82525.18985424288</v>
+        <v>2397.7204121953305</v>
       </c>
       <c r="X3" t="n">
-        <v>51025.86368230384</v>
+        <v>3018.551157290287</v>
       </c>
       <c r="Y3" t="n">
-        <v>64237.756448397406</v>
+        <v>3800.1307587134343</v>
       </c>
       <c r="Z3" t="n">
-        <v>80870.54398953212</v>
+        <v>4784.081180284991</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>6022.801369947008</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>7582.257694815012</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>9545.496890774482</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>12017.068603998207</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>15128.593040847201</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>19045.770223814936</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>23977.204121953306</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>30185.51157290287</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>38001.307587134346</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>47840.811802849916</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>60228.01369947008</v>
+      </c>
+      <c r="AL3" t="n">
+        <v>75822.57694815012</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>95454.96890774481</v>
       </c>
     </row>
   </sheetData>
@@ -319,242 +436,359 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="n">
-        <v>0.9166863212955778</v>
+        <v>0.9166936453177409</v>
       </c>
       <c r="B1" t="n">
-        <v>0.8976543536866922</v>
+        <v>0.9167093981217562</v>
       </c>
       <c r="C1" t="n">
-        <v>0.8559965344788018</v>
+        <v>0.9167343240965863</v>
       </c>
       <c r="D1" t="n">
-        <v>0.7850091060849008</v>
+        <v>0.9167737273391968</v>
       </c>
       <c r="E1" t="n">
-        <v>0.6899562512444375</v>
+        <v>0.9168359218830081</v>
       </c>
       <c r="F1" t="n">
-        <v>0.5882565449944698</v>
+        <v>0.9169338530257343</v>
       </c>
       <c r="G1" t="n">
-        <v>0.497484737883706</v>
+        <v>0.917087458126003</v>
       </c>
       <c r="H1" t="n">
-        <v>0.42568320549611266</v>
+        <v>0.9173268883001945</v>
       </c>
       <c r="I1" t="n">
-        <v>0.371964676543242</v>
+        <v>0.9176963269927608</v>
       </c>
       <c r="J1" t="n">
-        <v>0.33131791645857983</v>
+        <v>0.9182568813162493</v>
       </c>
       <c r="K1" t="n">
-        <v>0.29822116658453013</v>
+        <v>0.9190835150533492</v>
       </c>
       <c r="L1" t="n">
-        <v>0.2686009176217027</v>
+        <v>0.9202421132486066</v>
       </c>
       <c r="M1" t="n">
-        <v>0.24072888718006447</v>
+        <v>0.9217121727781259</v>
       </c>
       <c r="N1" t="n">
-        <v>0.21478821998454908</v>
+        <v>0.9231783797363337</v>
       </c>
       <c r="O1" t="n">
-        <v>0.19139598961099108</v>
+        <v>0.9235471318676544</v>
       </c>
       <c r="P1" t="n">
-        <v>0.1706243672423805</v>
+        <v>0.920009288317627</v>
       </c>
       <c r="Q1" t="n">
-        <v>0.15214759025820612</v>
+        <v>0.9067444981490078</v>
       </c>
       <c r="R1" t="n">
-        <v>0.13565621359549668</v>
+        <v>0.8745523205863875</v>
       </c>
       <c r="S1" t="n">
-        <v>0.12093804404593289</v>
+        <v>0.81453208812339</v>
       </c>
       <c r="T1" t="n">
-        <v>0.10781038640301499</v>
+        <v>0.7267765664425813</v>
       </c>
       <c r="U1" t="n">
-        <v>0.09610327681152464</v>
+        <v>0.6251748870241299</v>
       </c>
       <c r="V1" t="n">
-        <v>0.08566419827901635</v>
+        <v>0.528861349120939</v>
       </c>
       <c r="W1" t="n">
-        <v>0.07635679014817956</v>
+        <v>0.4498095229413884</v>
       </c>
       <c r="X1" t="n">
-        <v>0.09708009073151327</v>
+        <v>0.38990244904231813</v>
       </c>
       <c r="Y1" t="n">
-        <v>0.08653516365023613</v>
+        <v>0.34511692041745784</v>
       </c>
       <c r="Z1" t="n">
-        <v>0.07713330481416192</v>
+        <v>0.3098229344455477</v>
+      </c>
+      <c r="AA1" t="n">
+        <v>0.27925556114011163</v>
+      </c>
+      <c r="AB1" t="n">
+        <v>0.25079362174581443</v>
+      </c>
+      <c r="AC1" t="n">
+        <v>0.22406010542802307</v>
+      </c>
+      <c r="AD1" t="n">
+        <v>0.19968686207273728</v>
+      </c>
+      <c r="AE1" t="n">
+        <v>0.1779790805230712</v>
+      </c>
+      <c r="AF1" t="n">
+        <v>0.15870032037145682</v>
+      </c>
+      <c r="AG1" t="n">
+        <v>0.14150683550901968</v>
+      </c>
+      <c r="AH1" t="n">
+        <v>0.1261581477769235</v>
+      </c>
+      <c r="AI1" t="n">
+        <v>0.11246597184552458</v>
+      </c>
+      <c r="AJ1" t="n">
+        <v>0.10025493898015328</v>
+      </c>
+      <c r="AK1" t="n">
+        <v>0.08936603980455568</v>
+      </c>
+      <c r="AL1" t="n">
+        <v>0.07965722907755661</v>
+      </c>
+      <c r="AM1" t="n">
+        <v>0.0710013857683391</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>-1.099189232927488</v>
+        <v>-31.83496062446708</v>
       </c>
       <c r="B2" t="n">
-        <v>-0.9656152091650854</v>
+        <v>-25.289254475285656</v>
       </c>
       <c r="C2" t="n">
-        <v>-0.879588145513149</v>
+        <v>-20.090294565137512</v>
       </c>
       <c r="D2" t="n">
-        <v>-0.8197833352486277</v>
+        <v>-15.96121853303994</v>
       </c>
       <c r="E2" t="n">
-        <v>-0.7622047257757647</v>
+        <v>-12.682140437333363</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.6924999037042082</v>
+        <v>-10.078442212177043</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.6118045538935166</v>
+        <v>-8.011476958744476</v>
       </c>
       <c r="H2" t="n">
-        <v>-0.5295850465176145</v>
+        <v>-6.37119008597329</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.45456168795599594</v>
+        <v>-5.070267431873672</v>
       </c>
       <c r="J2" t="n">
-        <v>-0.3911892900994323</v>
+        <v>-4.03950254428216</v>
       </c>
       <c r="K2" t="n">
-        <v>-0.3399180070509753</v>
+        <v>-3.224142963914114</v>
       </c>
       <c r="L2" t="n">
-        <v>-0.2985104056986346</v>
+        <v>-2.58103079884755</v>
       </c>
       <c r="M2" t="n">
-        <v>-0.26377110811895077</v>
+        <v>-2.076395489634656</v>
       </c>
       <c r="N2" t="n">
-        <v>-0.2333250509791459</v>
+        <v>-1.6841747324671152</v>
       </c>
       <c r="O2" t="n">
-        <v>-0.20625122956011394</v>
+        <v>-1.3846927036937005</v>
       </c>
       <c r="P2" t="n">
-        <v>-0.18235066182978238</v>
+        <v>-1.1633224924785268</v>
       </c>
       <c r="Q2" t="n">
-        <v>-0.16137339079527777</v>
+        <v>-1.0083306692532972</v>
       </c>
       <c r="R2" t="n">
-        <v>-0.14293587556836196</v>
+        <v>-0.9069027301874443</v>
       </c>
       <c r="S2" t="n">
-        <v>-0.1266898405703922</v>
+        <v>-0.8403244089826011</v>
       </c>
       <c r="T2" t="n">
-        <v>-0.11235675513334285</v>
+        <v>-0.784379557252014</v>
       </c>
       <c r="U2" t="n">
-        <v>-0.09969871208779307</v>
+        <v>-0.7197743184746006</v>
       </c>
       <c r="V2" t="n">
-        <v>-0.08850898504385453</v>
+        <v>-0.6422250042628902</v>
       </c>
       <c r="W2" t="n">
-        <v>-0.07860860363838762</v>
+        <v>-0.5593760035583024</v>
       </c>
       <c r="X2" t="n">
-        <v>-0.10075043601077875</v>
+        <v>-0.4809451432155217</v>
       </c>
       <c r="Y2" t="n">
-        <v>-0.08943910526977207</v>
+        <v>-0.41304621887758913</v>
       </c>
       <c r="Z2" t="n">
-        <v>-0.07943186118075096</v>
+        <v>-0.35747373778420316</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>-0.3128004335001966</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>-0.27595873278617133</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>-0.24411132981396938</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>-0.2158353305833199</v>
+      </c>
+      <c r="AE2" t="n">
+        <v>-0.19078536864866716</v>
+      </c>
+      <c r="AF2" t="n">
+        <v>-0.16877428621780075</v>
+      </c>
+      <c r="AG2" t="n">
+        <v>-0.14944721083202248</v>
+      </c>
+      <c r="AH2" t="n">
+        <v>-0.13243034498027276</v>
+      </c>
+      <c r="AI2" t="n">
+        <v>-0.11742293420758859</v>
+      </c>
+      <c r="AJ2" t="n">
+        <v>-0.10417431319369141</v>
+      </c>
+      <c r="AK2" t="n">
+        <v>-0.09246660742341917</v>
+      </c>
+      <c r="AL2" t="n">
+        <v>-0.08211113782375509</v>
+      </c>
+      <c r="AM2" t="n">
+        <v>-0.07294427271052578</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>520.6987464315688</v>
+        <v>15.128593040847202</v>
       </c>
       <c r="B3" t="n">
-        <v>655.5208837720694</v>
+        <v>19.045770223814934</v>
       </c>
       <c r="C3" t="n">
-        <v>825.2518985424289</v>
+        <v>23.977204121953307</v>
       </c>
       <c r="D3" t="n">
-        <v>1038.9305862064455</v>
+        <v>30.18551157290287</v>
       </c>
       <c r="E3" t="n">
-        <v>1307.936116065505</v>
+        <v>38.00130758713434</v>
       </c>
       <c r="F3" t="n">
-        <v>1646.5940135182295</v>
+        <v>47.84081180284991</v>
       </c>
       <c r="G3" t="n">
-        <v>2072.9390465262477</v>
+        <v>60.22801369947008</v>
       </c>
       <c r="H3" t="n">
-        <v>2609.675642772265</v>
+        <v>75.82257694815011</v>
       </c>
       <c r="I3" t="n">
-        <v>3285.3869832262812</v>
+        <v>95.45496890774481</v>
       </c>
       <c r="J3" t="n">
-        <v>4136.057160761343</v>
+        <v>120.17068603998207</v>
       </c>
       <c r="K3" t="n">
-        <v>5206.987464315687</v>
+        <v>151.285930408472</v>
       </c>
       <c r="L3" t="n">
-        <v>6555.208837720694</v>
+        <v>190.45770223814935</v>
       </c>
       <c r="M3" t="n">
-        <v>8252.518985424289</v>
+        <v>239.77204121953307</v>
       </c>
       <c r="N3" t="n">
-        <v>10389.305862064455</v>
+        <v>301.8551157290287</v>
       </c>
       <c r="O3" t="n">
-        <v>13079.36116065505</v>
+        <v>380.01307587134346</v>
       </c>
       <c r="P3" t="n">
-        <v>16465.940135182296</v>
+        <v>478.40811802849913</v>
       </c>
       <c r="Q3" t="n">
-        <v>20729.390465262477</v>
+        <v>602.2801369947008</v>
       </c>
       <c r="R3" t="n">
-        <v>26096.756427722645</v>
+        <v>758.2257694815012</v>
       </c>
       <c r="S3" t="n">
-        <v>32853.86983226281</v>
+        <v>954.5496890774482</v>
       </c>
       <c r="T3" t="n">
-        <v>41360.57160761343</v>
+        <v>1201.7068603998207</v>
       </c>
       <c r="U3" t="n">
-        <v>52069.87464315688</v>
+        <v>1512.8593040847202</v>
       </c>
       <c r="V3" t="n">
-        <v>65552.08837720694</v>
+        <v>1904.5770223814934</v>
       </c>
       <c r="W3" t="n">
-        <v>82525.18985424288</v>
+        <v>2397.7204121953305</v>
       </c>
       <c r="X3" t="n">
-        <v>51025.86368230384</v>
+        <v>3018.551157290287</v>
       </c>
       <c r="Y3" t="n">
-        <v>64237.756448397406</v>
+        <v>3800.1307587134343</v>
       </c>
       <c r="Z3" t="n">
-        <v>80870.54398953212</v>
+        <v>4784.081180284991</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>6022.801369947008</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>7582.257694815012</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>9545.496890774482</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>12017.068603998207</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>15128.593040847201</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>19045.770223814936</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>23977.204121953306</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>30185.51157290287</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>38001.307587134346</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>47840.811802849916</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>60228.01369947008</v>
+      </c>
+      <c r="AL3" t="n">
+        <v>75822.57694815012</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>95454.96890774481</v>
       </c>
     </row>
   </sheetData>
@@ -572,242 +806,359 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="n">
-        <v>1.0469195748570361</v>
+        <v>1.0667346694055784</v>
       </c>
       <c r="B1" t="n">
-        <v>0.9843674149676935</v>
+        <v>1.0667743630209778</v>
       </c>
       <c r="C1" t="n">
-        <v>0.8785094157614681</v>
+        <v>1.0668371511308101</v>
       </c>
       <c r="D1" t="n">
-        <v>0.746978260130778</v>
+        <v>1.0669363570929036</v>
       </c>
       <c r="E1" t="n">
-        <v>0.6213563434235267</v>
+        <v>1.067092818260433</v>
       </c>
       <c r="F1" t="n">
-        <v>0.5213437898693877</v>
+        <v>1.0673388598323275</v>
       </c>
       <c r="G1" t="n">
-        <v>0.4492247339017359</v>
+        <v>1.0677239576872424</v>
       </c>
       <c r="H1" t="n">
-        <v>0.3987571992981874</v>
+        <v>1.0683221217405459</v>
       </c>
       <c r="I1" t="n">
-        <v>0.3619277948144557</v>
+        <v>1.069239618406886</v>
       </c>
       <c r="J1" t="n">
-        <v>0.3313676843644821</v>
+        <v>1.070617301066668</v>
       </c>
       <c r="K1" t="n">
-        <v>0.30160913725748384</v>
+        <v>1.0726098372316908</v>
       </c>
       <c r="L1" t="n">
-        <v>0.27080851834932984</v>
+        <v>1.0752934713307736</v>
       </c>
       <c r="M1" t="n">
-        <v>0.24083865260826914</v>
+        <v>1.0783819293460841</v>
       </c>
       <c r="N1" t="n">
-        <v>0.21407852189159426</v>
+        <v>1.0804866767586299</v>
       </c>
       <c r="O1" t="n">
-        <v>0.19089176633589228</v>
+        <v>1.0774931487914594</v>
       </c>
       <c r="P1" t="n">
-        <v>0.17041160720989385</v>
+        <v>1.0599948022682284</v>
       </c>
       <c r="Q1" t="n">
-        <v>0.15202619166144846</v>
+        <v>1.0124666029267277</v>
       </c>
       <c r="R1" t="n">
-        <v>0.13555992100750525</v>
+        <v>0.9219495473713966</v>
       </c>
       <c r="S1" t="n">
-        <v>0.12086895276174611</v>
+        <v>0.7963136333761857</v>
       </c>
       <c r="T1" t="n">
-        <v>0.10776256751134841</v>
+        <v>0.6652006236233128</v>
       </c>
       <c r="U1" t="n">
-        <v>0.0960696893867338</v>
+        <v>0.5547282883829273</v>
       </c>
       <c r="V1" t="n">
-        <v>0.08564059840939212</v>
+        <v>0.4728254371892633</v>
       </c>
       <c r="W1" t="n">
-        <v>0.07634019896676877</v>
+        <v>0.41531406844498847</v>
       </c>
       <c r="X1" t="n">
-        <v>0.09704544642029754</v>
+        <v>0.3743834048450214</v>
       </c>
       <c r="Y1" t="n">
-        <v>0.08651081962790108</v>
+        <v>0.34228687587187717</v>
       </c>
       <c r="Z1" t="n">
-        <v>0.07711619197276214</v>
+        <v>0.3126760363725203</v>
+      </c>
+      <c r="AA1" t="n">
+        <v>0.2821960506008407</v>
+      </c>
+      <c r="AB1" t="n">
+        <v>0.2515828939684151</v>
+      </c>
+      <c r="AC1" t="n">
+        <v>0.22348098934793523</v>
+      </c>
+      <c r="AD1" t="n">
+        <v>0.19905618324712956</v>
+      </c>
+      <c r="AE1" t="n">
+        <v>0.17768335033299318</v>
+      </c>
+      <c r="AF1" t="n">
+        <v>0.15856138603187073</v>
+      </c>
+      <c r="AG1" t="n">
+        <v>0.14140160739734142</v>
+      </c>
+      <c r="AH1" t="n">
+        <v>0.12607917379945863</v>
+      </c>
+      <c r="AI1" t="n">
+        <v>0.11241134012992689</v>
+      </c>
+      <c r="AJ1" t="n">
+        <v>0.10021670745184007</v>
+      </c>
+      <c r="AK1" t="n">
+        <v>0.08933916693830266</v>
+      </c>
+      <c r="AL1" t="n">
+        <v>0.07963834371565501</v>
+      </c>
+      <c r="AM1" t="n">
+        <v>0.07098810176300815</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>-1.2265215913312877</v>
+        <v>-31.837061200071382</v>
       </c>
       <c r="B2" t="n">
-        <v>-1.1237978998246372</v>
+        <v>-25.29190073945503</v>
       </c>
       <c r="C2" t="n">
-        <v>-1.0444654954776713</v>
+        <v>-20.093629596490302</v>
       </c>
       <c r="D2" t="n">
-        <v>-0.9540337130480456</v>
+        <v>-15.965424230785663</v>
       </c>
       <c r="E2" t="n">
-        <v>-0.8430324116516204</v>
+        <v>-12.687449330548102</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.7241057881239826</v>
+        <v>-10.085154058987916</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.6125489548416355</v>
+        <v>-8.019983062094285</v>
       </c>
       <c r="H2" t="n">
-        <v>-0.5171807587260168</v>
+        <v>-6.382010605693004</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.44082270862446843</v>
+        <v>-5.084111335194649</v>
       </c>
       <c r="J2" t="n">
-        <v>-0.3822504515718389</v>
+        <v>-4.057367687819954</v>
       </c>
       <c r="K2" t="n">
-        <v>-0.3371494138835294</v>
+        <v>-3.2474869159971065</v>
       </c>
       <c r="L2" t="n">
-        <v>-0.29962681993174123</v>
+        <v>-2.612060910440048</v>
       </c>
       <c r="M2" t="n">
-        <v>-0.2655199986945781</v>
+        <v>-2.118534813446538</v>
       </c>
       <c r="N2" t="n">
-        <v>-0.23419043723273117</v>
+        <v>-1.7426869589076606</v>
       </c>
       <c r="O2" t="n">
-        <v>-0.20647562827440022</v>
+        <v>-1.4670505103017533</v>
       </c>
       <c r="P2" t="n">
-        <v>-0.1824566182674735</v>
+        <v>-1.2776772532704945</v>
       </c>
       <c r="Q2" t="n">
-        <v>-0.16149107501178628</v>
+        <v>-1.1567351383678817</v>
       </c>
       <c r="R2" t="n">
-        <v>-0.1430277375524668</v>
+        <v>-1.0734692585029926</v>
       </c>
       <c r="S2" t="n">
-        <v>-0.12675202496819402</v>
+        <v>-0.9898570870989716</v>
       </c>
       <c r="T2" t="n">
-        <v>-0.11240067409913186</v>
+        <v>-0.8856992953836103</v>
       </c>
       <c r="U2" t="n">
-        <v>-0.09972991738829827</v>
+        <v>-0.7676982746107519</v>
       </c>
       <c r="V2" t="n">
-        <v>-0.08853107815682797</v>
+        <v>-0.6520200438035294</v>
       </c>
       <c r="W2" t="n">
-        <v>-0.07862425108313131</v>
+        <v>-0.5501011183108047</v>
       </c>
       <c r="X2" t="n">
-        <v>-0.1007826027060906</v>
+        <v>-0.4667069953753391</v>
       </c>
       <c r="Y2" t="n">
-        <v>-0.08946187919463826</v>
+        <v>-0.4019444975534845</v>
       </c>
       <c r="Z2" t="n">
-        <v>-0.07944799077199795</v>
+        <v>-0.3525460897574915</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>-0.31288991160539226</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>-0.27777545405588455</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>-0.2453364107336651</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>-0.21622118649984792</v>
+      </c>
+      <c r="AE2" t="n">
+        <v>-0.19089916162710885</v>
+      </c>
+      <c r="AF2" t="n">
+        <v>-0.16889077523744517</v>
+      </c>
+      <c r="AG2" t="n">
+        <v>-0.1495515080386929</v>
+      </c>
+      <c r="AH2" t="n">
+        <v>-0.13250192294716384</v>
+      </c>
+      <c r="AI2" t="n">
+        <v>-0.11747268129349182</v>
+      </c>
+      <c r="AJ2" t="n">
+        <v>-0.10420973166827847</v>
+      </c>
+      <c r="AK2" t="n">
+        <v>-0.09249169168515009</v>
+      </c>
+      <c r="AL2" t="n">
+        <v>-0.08212890266329186</v>
+      </c>
+      <c r="AM2" t="n">
+        <v>-0.07295685372103614</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>520.6987464315688</v>
+        <v>15.128593040847202</v>
       </c>
       <c r="B3" t="n">
-        <v>655.5208837720694</v>
+        <v>19.045770223814934</v>
       </c>
       <c r="C3" t="n">
-        <v>825.2518985424289</v>
+        <v>23.977204121953307</v>
       </c>
       <c r="D3" t="n">
-        <v>1038.9305862064455</v>
+        <v>30.18551157290287</v>
       </c>
       <c r="E3" t="n">
-        <v>1307.936116065505</v>
+        <v>38.00130758713434</v>
       </c>
       <c r="F3" t="n">
-        <v>1646.5940135182295</v>
+        <v>47.84081180284991</v>
       </c>
       <c r="G3" t="n">
-        <v>2072.9390465262477</v>
+        <v>60.22801369947008</v>
       </c>
       <c r="H3" t="n">
-        <v>2609.675642772265</v>
+        <v>75.82257694815011</v>
       </c>
       <c r="I3" t="n">
-        <v>3285.3869832262812</v>
+        <v>95.45496890774481</v>
       </c>
       <c r="J3" t="n">
-        <v>4136.057160761343</v>
+        <v>120.17068603998207</v>
       </c>
       <c r="K3" t="n">
-        <v>5206.987464315687</v>
+        <v>151.285930408472</v>
       </c>
       <c r="L3" t="n">
-        <v>6555.208837720694</v>
+        <v>190.45770223814935</v>
       </c>
       <c r="M3" t="n">
-        <v>8252.518985424289</v>
+        <v>239.77204121953307</v>
       </c>
       <c r="N3" t="n">
-        <v>10389.305862064455</v>
+        <v>301.8551157290287</v>
       </c>
       <c r="O3" t="n">
-        <v>13079.36116065505</v>
+        <v>380.01307587134346</v>
       </c>
       <c r="P3" t="n">
-        <v>16465.940135182296</v>
+        <v>478.40811802849913</v>
       </c>
       <c r="Q3" t="n">
-        <v>20729.390465262477</v>
+        <v>602.2801369947008</v>
       </c>
       <c r="R3" t="n">
-        <v>26096.756427722645</v>
+        <v>758.2257694815012</v>
       </c>
       <c r="S3" t="n">
-        <v>32853.86983226281</v>
+        <v>954.5496890774482</v>
       </c>
       <c r="T3" t="n">
-        <v>41360.57160761343</v>
+        <v>1201.7068603998207</v>
       </c>
       <c r="U3" t="n">
-        <v>52069.87464315688</v>
+        <v>1512.8593040847202</v>
       </c>
       <c r="V3" t="n">
-        <v>65552.08837720694</v>
+        <v>1904.5770223814934</v>
       </c>
       <c r="W3" t="n">
-        <v>82525.18985424288</v>
+        <v>2397.7204121953305</v>
       </c>
       <c r="X3" t="n">
-        <v>51025.86368230384</v>
+        <v>3018.551157290287</v>
       </c>
       <c r="Y3" t="n">
-        <v>64237.756448397406</v>
+        <v>3800.1307587134343</v>
       </c>
       <c r="Z3" t="n">
-        <v>80870.54398953212</v>
+        <v>4784.081180284991</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>6022.801369947008</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>7582.257694815012</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>9545.496890774482</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>12017.068603998207</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>15128.593040847201</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>19045.770223814936</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>23977.204121953306</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>30185.51157290287</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>38001.307587134346</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>47840.811802849916</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>60228.01369947008</v>
+      </c>
+      <c r="AL3" t="n">
+        <v>75822.57694815012</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>95454.96890774481</v>
       </c>
     </row>
   </sheetData>
@@ -825,242 +1176,359 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="n">
-        <v>0.8329992270174753</v>
+        <v>0.916628595679069</v>
       </c>
       <c r="B1" t="n">
-        <v>0.7845727824381286</v>
+        <v>0.9166062684672384</v>
       </c>
       <c r="C1" t="n">
-        <v>0.7253532704749369</v>
+        <v>0.9165707920382105</v>
       </c>
       <c r="D1" t="n">
-        <v>0.6616005163661562</v>
+        <v>0.9165143396130305</v>
       </c>
       <c r="E1" t="n">
-        <v>0.598424075269218</v>
+        <v>0.9164243024859983</v>
       </c>
       <c r="F1" t="n">
-        <v>0.5387829587840419</v>
+        <v>0.9162801885688778</v>
       </c>
       <c r="G1" t="n">
-        <v>0.48450967805579387</v>
+        <v>0.9160482584625904</v>
       </c>
       <c r="H1" t="n">
-        <v>0.4364413689492016</v>
+        <v>0.9156719332084547</v>
       </c>
       <c r="I1" t="n">
-        <v>0.39373370671536007</v>
+        <v>0.9150539909919435</v>
       </c>
       <c r="J1" t="n">
-        <v>0.3540200787946776</v>
+        <v>0.9140223660408536</v>
       </c>
       <c r="K1" t="n">
-        <v>0.315321682966441</v>
+        <v>0.912263027467124</v>
       </c>
       <c r="L1" t="n">
-        <v>0.2782343227184306</v>
+        <v>0.9091891366293547</v>
       </c>
       <c r="M1" t="n">
-        <v>0.24511408335730037</v>
+        <v>0.9037008334217644</v>
       </c>
       <c r="N1" t="n">
-        <v>0.21705050199392897</v>
+        <v>0.8938142665979584</v>
       </c>
       <c r="O1" t="n">
-        <v>0.19312082007750442</v>
+        <v>0.8763322747571259</v>
       </c>
       <c r="P1" t="n">
-        <v>0.1720164398677012</v>
+        <v>0.8472543565004115</v>
       </c>
       <c r="Q1" t="n">
-        <v>0.15314091549825637</v>
+        <v>0.8039289596848775</v>
       </c>
       <c r="R1" t="n">
-        <v>0.13633601275590174</v>
+        <v>0.7480069278541479</v>
       </c>
       <c r="S1" t="n">
-        <v>0.12141323475733144</v>
+        <v>0.6852040539319156</v>
       </c>
       <c r="T1" t="n">
-        <v>0.108144522463204</v>
+        <v>0.6213765129396818</v>
       </c>
       <c r="U1" t="n">
-        <v>0.09633787165527591</v>
+        <v>0.5601807366108976</v>
       </c>
       <c r="V1" t="n">
-        <v>0.085829068613984</v>
+        <v>0.5037691533375062</v>
       </c>
       <c r="W1" t="n">
-        <v>0.0764727492709568</v>
+        <v>0.4534146593760455</v>
       </c>
       <c r="X1" t="n">
-        <v>0.0973220911114971</v>
+        <v>0.4089526176323424</v>
       </c>
       <c r="Y1" t="n">
-        <v>0.08670522296101865</v>
+        <v>0.3684469545883379</v>
       </c>
       <c r="Z1" t="n">
-        <v>0.07725290643744684</v>
+        <v>0.32946787592605625</v>
+      </c>
+      <c r="AA1" t="n">
+        <v>0.2915434185601748</v>
+      </c>
+      <c r="AB1" t="n">
+        <v>0.25671542828973826</v>
+      </c>
+      <c r="AC1" t="n">
+        <v>0.22681675451002678</v>
+      </c>
+      <c r="AD1" t="n">
+        <v>0.20153775215825018</v>
+      </c>
+      <c r="AE1" t="n">
+        <v>0.1795059342053356</v>
+      </c>
+      <c r="AF1" t="n">
+        <v>0.15983759177010745</v>
+      </c>
+      <c r="AG1" t="n">
+        <v>0.14228715503007305</v>
+      </c>
+      <c r="AH1" t="n">
+        <v>0.12669917761452357</v>
+      </c>
+      <c r="AI1" t="n">
+        <v>0.11284644917142979</v>
+      </c>
+      <c r="AJ1" t="n">
+        <v>0.10052211536323997</v>
+      </c>
+      <c r="AK1" t="n">
+        <v>0.08955373105930273</v>
+      </c>
+      <c r="AL1" t="n">
+        <v>0.07978920568174526</v>
+      </c>
+      <c r="AM1" t="n">
+        <v>0.07109424875772925</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>-1.1575747973895794</v>
+        <v>-31.837877672504103</v>
       </c>
       <c r="B2" t="n">
-        <v>-1.0037864393315497</v>
+        <v>-25.292926712599854</v>
       </c>
       <c r="C2" t="n">
-        <v>-0.8790650748294538</v>
+        <v>-20.094917418092095</v>
       </c>
       <c r="D2" t="n">
-        <v>-0.7730494589357377</v>
+        <v>-15.967037911013689</v>
       </c>
       <c r="E2" t="n">
-        <v>-0.680732398389507</v>
+        <v>-12.689465671630591</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.5994846740259604</v>
+        <v>-10.087662180828934</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.5278148127637907</v>
+        <v>-8.023079989173127</v>
       </c>
       <c r="H2" t="n">
-        <v>-0.4654543336216891</v>
+        <v>-6.385788002633644</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.41271556632101936</v>
+        <v>-5.088623155398304</v>
       </c>
       <c r="J2" t="n">
-        <v>-0.3688597301200048</v>
+        <v>-4.062557497823317</v>
       </c>
       <c r="K2" t="n">
-        <v>-0.3310494910934007</v>
+        <v>-3.253031086296487</v>
       </c>
       <c r="L2" t="n">
-        <v>-0.2958711882184814</v>
+        <v>-2.6170392415700294</v>
       </c>
       <c r="M2" t="n">
-        <v>-0.26223637330468225</v>
+        <v>-2.120762621889503</v>
       </c>
       <c r="N2" t="n">
-        <v>-0.23139211525259898</v>
+        <v>-1.737463494796077</v>
       </c>
       <c r="O2" t="n">
-        <v>-0.20440581164808702</v>
+        <v>-1.4452637442036163</v>
       </c>
       <c r="P2" t="n">
-        <v>-0.18103041495745498</v>
+        <v>-1.2245867813013627</v>
       </c>
       <c r="Q2" t="n">
-        <v>-0.16049829053820516</v>
+        <v>-1.0562216163267664</v>
       </c>
       <c r="R2" t="n">
-        <v>-0.14232350776229374</v>
+        <v>-0.9223678339730479</v>
       </c>
       <c r="S2" t="n">
-        <v>-0.12625265533935007</v>
+        <v>-0.8102715224590024</v>
       </c>
       <c r="T2" t="n">
-        <v>-0.11204727319333613</v>
+        <v>-0.7132936677888996</v>
       </c>
       <c r="U2" t="n">
-        <v>-0.0994797489311971</v>
+        <v>-0.6282069069398976</v>
       </c>
       <c r="V2" t="n">
-        <v>-0.08835397651687557</v>
+        <v>-0.5531092929799684</v>
       </c>
       <c r="W2" t="n">
-        <v>-0.07849887595731693</v>
+        <v>-0.4872894611231915</v>
       </c>
       <c r="X2" t="n">
-        <v>-0.10052471707775015</v>
+        <v>-0.4310023498370172</v>
       </c>
       <c r="Y2" t="n">
-        <v>-0.08927931398120328</v>
+        <v>-0.3840977359987124</v>
       </c>
       <c r="Z2" t="n">
-        <v>-0.07931874795188261</v>
+        <v>-0.3444969748188253</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>-0.30864581604409247</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>-0.27437421252225286</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>-0.24231837188715058</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>-0.2138767450407818</v>
+      </c>
+      <c r="AE2" t="n">
+        <v>-0.18926053321750483</v>
+      </c>
+      <c r="AF2" t="n">
+        <v>-0.1677601292093466</v>
+      </c>
+      <c r="AG2" t="n">
+        <v>-0.14875297417732442</v>
+      </c>
+      <c r="AH2" t="n">
+        <v>-0.13193498451793373</v>
+      </c>
+      <c r="AI2" t="n">
+        <v>-0.11707134786200012</v>
+      </c>
+      <c r="AJ2" t="n">
+        <v>-0.10392566725673898</v>
+      </c>
+      <c r="AK2" t="n">
+        <v>-0.09229059289353872</v>
+      </c>
+      <c r="AL2" t="n">
+        <v>-0.081986539739525</v>
+      </c>
+      <c r="AM2" t="n">
+        <v>-0.07285607047073647</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>520.6987464315688</v>
+        <v>15.128593040847202</v>
       </c>
       <c r="B3" t="n">
-        <v>655.5208837720694</v>
+        <v>19.045770223814934</v>
       </c>
       <c r="C3" t="n">
-        <v>825.2518985424289</v>
+        <v>23.977204121953307</v>
       </c>
       <c r="D3" t="n">
-        <v>1038.9305862064455</v>
+        <v>30.18551157290287</v>
       </c>
       <c r="E3" t="n">
-        <v>1307.936116065505</v>
+        <v>38.00130758713434</v>
       </c>
       <c r="F3" t="n">
-        <v>1646.5940135182295</v>
+        <v>47.84081180284991</v>
       </c>
       <c r="G3" t="n">
-        <v>2072.9390465262477</v>
+        <v>60.22801369947008</v>
       </c>
       <c r="H3" t="n">
-        <v>2609.675642772265</v>
+        <v>75.82257694815011</v>
       </c>
       <c r="I3" t="n">
-        <v>3285.3869832262812</v>
+        <v>95.45496890774481</v>
       </c>
       <c r="J3" t="n">
-        <v>4136.057160761343</v>
+        <v>120.17068603998207</v>
       </c>
       <c r="K3" t="n">
-        <v>5206.987464315687</v>
+        <v>151.285930408472</v>
       </c>
       <c r="L3" t="n">
-        <v>6555.208837720694</v>
+        <v>190.45770223814935</v>
       </c>
       <c r="M3" t="n">
-        <v>8252.518985424289</v>
+        <v>239.77204121953307</v>
       </c>
       <c r="N3" t="n">
-        <v>10389.305862064455</v>
+        <v>301.8551157290287</v>
       </c>
       <c r="O3" t="n">
-        <v>13079.36116065505</v>
+        <v>380.01307587134346</v>
       </c>
       <c r="P3" t="n">
-        <v>16465.940135182296</v>
+        <v>478.40811802849913</v>
       </c>
       <c r="Q3" t="n">
-        <v>20729.390465262477</v>
+        <v>602.2801369947008</v>
       </c>
       <c r="R3" t="n">
-        <v>26096.756427722645</v>
+        <v>758.2257694815012</v>
       </c>
       <c r="S3" t="n">
-        <v>32853.86983226281</v>
+        <v>954.5496890774482</v>
       </c>
       <c r="T3" t="n">
-        <v>41360.57160761343</v>
+        <v>1201.7068603998207</v>
       </c>
       <c r="U3" t="n">
-        <v>52069.87464315688</v>
+        <v>1512.8593040847202</v>
       </c>
       <c r="V3" t="n">
-        <v>65552.08837720694</v>
+        <v>1904.5770223814934</v>
       </c>
       <c r="W3" t="n">
-        <v>82525.18985424288</v>
+        <v>2397.7204121953305</v>
       </c>
       <c r="X3" t="n">
-        <v>51025.86368230384</v>
+        <v>3018.551157290287</v>
       </c>
       <c r="Y3" t="n">
-        <v>64237.756448397406</v>
+        <v>3800.1307587134343</v>
       </c>
       <c r="Z3" t="n">
-        <v>80870.54398953212</v>
+        <v>4784.081180284991</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>6022.801369947008</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>7582.257694815012</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>9545.496890774482</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>12017.068603998207</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>15128.593040847201</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>19045.770223814936</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>23977.204121953306</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>30185.51157290287</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>38001.307587134346</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>47840.811802849916</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>60228.01369947008</v>
+      </c>
+      <c r="AL3" t="n">
+        <v>75822.57694815012</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>95454.96890774481</v>
       </c>
     </row>
   </sheetData>
